--- a/excel/finished/焦化/CK67-CDQ操作运行报表（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-CDQ操作运行报表（日）报表设计.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="1.CDQ操作运行报表（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_CDQ_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -36,7 +39,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                        年                月                日                                                                                                                       SGSSGBSMCSA35G00501A                                                                                                                                                                                                                                                                                                                  </t>
+    <t xml:space="preserve">SGSSGBSMCSA35G00501A                                                                                                                                                                                                                                                                                                                  </t>
   </si>
   <si>
     <t xml:space="preserve">             参数
@@ -2337,10 +2340,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -2447,6 +2450,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2454,14 +2464,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2469,6 +2487,29 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2483,23 +2524,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2514,39 +2571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2560,31 +2585,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2653,7 +2656,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2665,175 +2836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3210,15 +3213,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3237,8 +3231,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3258,17 +3287,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3287,36 +3310,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3325,140 +3328,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3486,7 +3489,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3611,6 +3614,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3751,6 +3757,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4013,8 +4032,8 @@
   <sheetPr/>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:CB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25"/>
@@ -4149,9 +4168,7 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="28.5" customHeight="1" spans="1:80">
       <c r="A2" s="8"/>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -4161,75 +4178,80 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="L2" s="11" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
+      </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="8"/>
-      <c r="BU2" s="8"/>
-      <c r="BV2" s="8"/>
-      <c r="BW2" s="8"/>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="8"/>
-      <c r="CA2" s="8"/>
-      <c r="CB2" s="8"/>
+      <c r="Q2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="55"/>
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="55"/>
+      <c r="BV2" s="55"/>
+      <c r="BW2" s="55"/>
+      <c r="BX2" s="55"/>
+      <c r="BY2" s="55"/>
+      <c r="BZ2" s="55"/>
+      <c r="CA2" s="55"/>
+      <c r="CB2" s="55"/>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:80">
       <c r="A3" s="12"/>
@@ -4331,7 +4353,7 @@
       <c r="BY3" s="14"/>
       <c r="BZ3" s="14"/>
       <c r="CA3" s="14"/>
-      <c r="CB3" s="74"/>
+      <c r="CB3" s="75"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="29.25" customHeight="1" spans="1:80">
       <c r="A4" s="12"/>
@@ -4427,20 +4449,20 @@
       <c r="AI4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="56" t="s">
+      <c r="AJ4" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="56" t="s">
+      <c r="AK4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56" t="s">
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AN4" s="56" t="s">
+      <c r="AN4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AO4" s="56"/>
+      <c r="AO4" s="57"/>
       <c r="AP4" s="18" t="s">
         <v>45</v>
       </c>
@@ -4506,16 +4528,16 @@
       <c r="BP4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="BQ4" s="70" t="s">
+      <c r="BQ4" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="BR4" s="70" t="s">
+      <c r="BR4" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="BS4" s="70" t="s">
+      <c r="BS4" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="BT4" s="70" t="s">
+      <c r="BT4" s="71" t="s">
         <v>65</v>
       </c>
       <c r="BU4" s="18" t="s">
@@ -4539,7 +4561,7 @@
       <c r="CA4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="CB4" s="75" t="s">
+      <c r="CB4" s="76" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4578,13 +4600,13 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
-      <c r="AI5" s="57"/>
+      <c r="AI5" s="58"/>
       <c r="AJ5" s="18"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
       <c r="AM5" s="18"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
       <c r="AP5" s="18"/>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="18"/>
@@ -4592,7 +4614,7 @@
       <c r="AT5" s="18"/>
       <c r="AU5" s="18"/>
       <c r="AV5" s="18"/>
-      <c r="AW5" s="70"/>
+      <c r="AW5" s="71"/>
       <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="AZ5" s="18"/>
@@ -4612,18 +4634,18 @@
       <c r="BN5" s="18"/>
       <c r="BO5" s="18"/>
       <c r="BP5" s="18"/>
-      <c r="BQ5" s="70"/>
-      <c r="BR5" s="70"/>
-      <c r="BS5" s="70"/>
-      <c r="BT5" s="70"/>
-      <c r="BU5" s="56"/>
+      <c r="BQ5" s="71"/>
+      <c r="BR5" s="71"/>
+      <c r="BS5" s="71"/>
+      <c r="BT5" s="71"/>
+      <c r="BU5" s="57"/>
       <c r="BV5" s="18"/>
       <c r="BW5" s="18"/>
       <c r="BX5" s="18"/>
       <c r="BY5" s="18"/>
       <c r="BZ5" s="18"/>
       <c r="CA5" s="18"/>
-      <c r="CB5" s="75"/>
+      <c r="CB5" s="76"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="54" customHeight="1" spans="1:80">
       <c r="A6" s="12"/>
@@ -4676,7 +4698,7 @@
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
-      <c r="AI6" s="58"/>
+      <c r="AI6" s="59"/>
       <c r="AJ6" s="18"/>
       <c r="AK6" s="22" t="s">
         <v>76</v>
@@ -4685,10 +4707,10 @@
         <v>77</v>
       </c>
       <c r="AM6" s="18"/>
-      <c r="AN6" s="59" t="s">
+      <c r="AN6" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="AO6" s="59" t="s">
+      <c r="AO6" s="60" t="s">
         <v>79</v>
       </c>
       <c r="AP6" s="18"/>
@@ -4704,7 +4726,7 @@
       <c r="AV6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AW6" s="70"/>
+      <c r="AW6" s="71"/>
       <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="AZ6" s="18"/>
@@ -4748,18 +4770,18 @@
       </c>
       <c r="BO6" s="18"/>
       <c r="BP6" s="18"/>
-      <c r="BQ6" s="70"/>
-      <c r="BR6" s="70"/>
-      <c r="BS6" s="70"/>
-      <c r="BT6" s="70"/>
-      <c r="BU6" s="56"/>
+      <c r="BQ6" s="71"/>
+      <c r="BR6" s="71"/>
+      <c r="BS6" s="71"/>
+      <c r="BT6" s="71"/>
+      <c r="BU6" s="57"/>
       <c r="BV6" s="18"/>
       <c r="BW6" s="18"/>
       <c r="BX6" s="18"/>
       <c r="BY6" s="18"/>
       <c r="BZ6" s="18"/>
       <c r="CA6" s="18"/>
-      <c r="CB6" s="75"/>
+      <c r="CB6" s="76"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="44.45" hidden="1" customHeight="1" spans="1:80">
       <c r="A7" s="12"/>
@@ -4821,7 +4843,7 @@
       <c r="AA7" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="55" t="s">
+      <c r="AB7" s="56" t="s">
         <v>99</v>
       </c>
       <c r="AC7" s="26" t="s">
@@ -4837,103 +4859,103 @@
       <c r="AI7" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="AJ7" s="55" t="s">
+      <c r="AJ7" s="56" t="s">
         <v>102</v>
       </c>
       <c r="AK7" s="26" t="s">
         <v>103</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="55" t="s">
+      <c r="AM7" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="AN7" s="55"/>
+      <c r="AN7" s="56"/>
       <c r="AO7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="AP7" s="63" t="s">
+      <c r="AP7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="AQ7" s="63" t="s">
+      <c r="AQ7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="AR7" s="64" t="s">
+      <c r="AR7" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="AS7" s="64" t="s">
+      <c r="AS7" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="AT7" s="64" t="s">
+      <c r="AT7" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="64"/>
-      <c r="AW7" s="64" t="s">
+      <c r="AU7" s="65"/>
+      <c r="AV7" s="65"/>
+      <c r="AW7" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="AX7" s="64" t="s">
+      <c r="AX7" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="AY7" s="64" t="s">
+      <c r="AY7" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="AZ7" s="64" t="s">
+      <c r="AZ7" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="BA7" s="64" t="s">
+      <c r="BA7" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="BB7" s="64"/>
-      <c r="BC7" s="64" t="s">
+      <c r="BB7" s="65"/>
+      <c r="BC7" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="BD7" s="64" t="s">
+      <c r="BD7" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="BE7" s="64"/>
-      <c r="BF7" s="64" t="s">
+      <c r="BE7" s="65"/>
+      <c r="BF7" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="BG7" s="64"/>
-      <c r="BH7" s="64" t="s">
+      <c r="BG7" s="65"/>
+      <c r="BH7" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="BI7" s="64" t="s">
+      <c r="BI7" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="BJ7" s="64"/>
-      <c r="BK7" s="64"/>
-      <c r="BL7" s="64"/>
-      <c r="BM7" s="64"/>
-      <c r="BN7" s="64"/>
-      <c r="BO7" s="64" t="s">
+      <c r="BJ7" s="65"/>
+      <c r="BK7" s="65"/>
+      <c r="BL7" s="65"/>
+      <c r="BM7" s="65"/>
+      <c r="BN7" s="65"/>
+      <c r="BO7" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="BP7" s="64" t="s">
+      <c r="BP7" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="BQ7" s="64" t="s">
+      <c r="BQ7" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="BR7" s="64" t="s">
+      <c r="BR7" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="BS7" s="64" t="s">
+      <c r="BS7" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="BT7" s="64" t="s">
+      <c r="BT7" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="BU7" s="64"/>
-      <c r="BV7" s="64"/>
-      <c r="BW7" s="63" t="s">
+      <c r="BU7" s="65"/>
+      <c r="BV7" s="65"/>
+      <c r="BW7" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="BX7" s="64"/>
-      <c r="BY7" s="63"/>
-      <c r="BZ7" s="64"/>
-      <c r="CA7" s="64"/>
-      <c r="CB7" s="76"/>
+      <c r="BX7" s="65"/>
+      <c r="BY7" s="64"/>
+      <c r="BZ7" s="65"/>
+      <c r="CA7" s="65"/>
+      <c r="CB7" s="77"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="66" hidden="1" customHeight="1" spans="1:80">
       <c r="A8" s="12"/>
@@ -5055,10 +5077,10 @@
       <c r="AO8" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="AP8" s="65" t="s">
+      <c r="AP8" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="AQ8" s="65" t="s">
+      <c r="AQ8" s="66" t="s">
         <v>162</v>
       </c>
       <c r="AR8" s="28" t="s">
@@ -5169,7 +5191,7 @@
       <c r="CA8" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="CB8" s="77" t="s">
+      <c r="CB8" s="78" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5406,8 +5428,8 @@
       <c r="BZ9" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="CA9" s="78"/>
-      <c r="CB9" s="79"/>
+      <c r="CA9" s="79"/>
+      <c r="CB9" s="80"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.6" customHeight="1" spans="1:80">
       <c r="A10" s="7"/>
@@ -5570,159 +5592,159 @@
         <f>IF(_CDQ_day_hour!AM2="","",_CDQ_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP10" s="66" t="str">
+      <c r="AP10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AN2="","",_CDQ_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ10" s="66" t="str">
+      <c r="AQ10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AO2="","",_CDQ_day_hour!AO2)</f>
         <v/>
       </c>
-      <c r="AR10" s="67" t="str">
+      <c r="AR10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AP2="","",_CDQ_day_hour!AP2)</f>
         <v/>
       </c>
-      <c r="AS10" s="67" t="str">
+      <c r="AS10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AQ2="","",_CDQ_day_hour!AQ2)</f>
         <v/>
       </c>
-      <c r="AT10" s="67" t="str">
+      <c r="AT10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AR2="","",_CDQ_day_hour!AR2)</f>
         <v/>
       </c>
-      <c r="AU10" s="67" t="str">
+      <c r="AU10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AS2="","",_CDQ_day_hour!AS2)</f>
         <v/>
       </c>
-      <c r="AV10" s="67" t="str">
+      <c r="AV10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AT2="","",_CDQ_day_hour!AT2)</f>
         <v/>
       </c>
-      <c r="AW10" s="67" t="str">
+      <c r="AW10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AU2="","",_CDQ_day_hour!AU2)</f>
         <v/>
       </c>
-      <c r="AX10" s="67" t="str">
+      <c r="AX10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AV2="","",_CDQ_day_hour!AV2)</f>
         <v/>
       </c>
-      <c r="AY10" s="67" t="str">
+      <c r="AY10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AW2="","",_CDQ_day_hour!AW2)</f>
         <v/>
       </c>
-      <c r="AZ10" s="67" t="str">
+      <c r="AZ10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AX2="","",_CDQ_day_hour!AX2)</f>
         <v/>
       </c>
-      <c r="BA10" s="67" t="str">
+      <c r="BA10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AY2="","",_CDQ_day_hour!AY2)</f>
         <v/>
       </c>
-      <c r="BB10" s="68" t="str">
+      <c r="BB10" s="69" t="str">
         <f>IF(_CDQ_day_hour!AZ2="","",_CDQ_day_hour!AZ2)</f>
         <v/>
       </c>
-      <c r="BC10" s="67" t="str">
+      <c r="BC10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BA2="","",_CDQ_day_hour!BA2)</f>
         <v/>
       </c>
-      <c r="BD10" s="67" t="str">
+      <c r="BD10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BB2="","",_CDQ_day_hour!BB2)</f>
         <v/>
       </c>
-      <c r="BE10" s="67" t="str">
+      <c r="BE10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BC2="","",_CDQ_day_hour!BC2)</f>
         <v/>
       </c>
-      <c r="BF10" s="67" t="str">
+      <c r="BF10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BD2="","",_CDQ_day_hour!BD2)</f>
         <v/>
       </c>
-      <c r="BG10" s="67" t="str">
+      <c r="BG10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BE2="","",_CDQ_day_hour!BE2)</f>
         <v/>
       </c>
-      <c r="BH10" s="67" t="str">
+      <c r="BH10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BF2="","",_CDQ_day_hour!BF2)</f>
         <v/>
       </c>
-      <c r="BI10" s="71" t="str">
+      <c r="BI10" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG2="","",_CDQ_day_hour!BG2)</f>
         <v/>
       </c>
-      <c r="BJ10" s="68" t="str">
+      <c r="BJ10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BH2="","",_CDQ_day_hour!BH2)</f>
         <v/>
       </c>
-      <c r="BK10" s="68" t="str">
+      <c r="BK10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BI2="","",_CDQ_day_hour!BI2)</f>
         <v/>
       </c>
-      <c r="BL10" s="68" t="str">
+      <c r="BL10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BJ2="","",_CDQ_day_hour!BJ2)</f>
         <v/>
       </c>
-      <c r="BM10" s="68" t="str">
+      <c r="BM10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BK2="","",_CDQ_day_hour!BK2)</f>
         <v/>
       </c>
-      <c r="BN10" s="68" t="str">
+      <c r="BN10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BL2="","",_CDQ_day_hour!BL2)</f>
         <v/>
       </c>
-      <c r="BO10" s="67" t="str">
+      <c r="BO10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BM2="","",_CDQ_day_hour!BM2)</f>
         <v/>
       </c>
-      <c r="BP10" s="67" t="str">
+      <c r="BP10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BN2="","",_CDQ_day_hour!BN2)</f>
         <v/>
       </c>
-      <c r="BQ10" s="67" t="str">
+      <c r="BQ10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BO2="","",_CDQ_day_hour!BO2)</f>
         <v/>
       </c>
-      <c r="BR10" s="67" t="str">
+      <c r="BR10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BP2="","",_CDQ_day_hour!BP2)</f>
         <v/>
       </c>
-      <c r="BS10" s="67" t="str">
+      <c r="BS10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BQ2="","",_CDQ_day_hour!BQ2)</f>
         <v/>
       </c>
-      <c r="BT10" s="67" t="str">
+      <c r="BT10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BR2="","",_CDQ_day_hour!BR2)</f>
         <v/>
       </c>
-      <c r="BU10" s="67" t="str">
+      <c r="BU10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BS2="","",_CDQ_day_hour!BS2)</f>
         <v/>
       </c>
-      <c r="BV10" s="67" t="str">
+      <c r="BV10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BT2="","",_CDQ_day_hour!BT2)</f>
         <v/>
       </c>
-      <c r="BW10" s="67" t="str">
+      <c r="BW10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BU2="","",_CDQ_day_hour!BU2)</f>
         <v/>
       </c>
-      <c r="BX10" s="67" t="str">
+      <c r="BX10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BV2="","",_CDQ_day_hour!BV2)</f>
         <v/>
       </c>
-      <c r="BY10" s="67" t="str">
+      <c r="BY10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BW2="","",_CDQ_day_hour!BW2)</f>
         <v/>
       </c>
-      <c r="BZ10" s="67" t="str">
+      <c r="BZ10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BX2="","",_CDQ_day_hour!BX2)</f>
         <v/>
       </c>
-      <c r="CA10" s="67" t="str">
+      <c r="CA10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BY2="","",_CDQ_day_hour!BY2)</f>
         <v/>
       </c>
-      <c r="CB10" s="80" t="str">
+      <c r="CB10" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ2="","",_CDQ_day_hour!BZ2)</f>
         <v/>
       </c>
@@ -5888,159 +5910,159 @@
         <f>IF(_CDQ_day_hour!AM3="","",_CDQ_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP11" s="66" t="str">
+      <c r="AP11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AN3="","",_CDQ_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ11" s="66" t="str">
+      <c r="AQ11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AO3="","",_CDQ_day_hour!AO3)</f>
         <v/>
       </c>
-      <c r="AR11" s="67" t="str">
+      <c r="AR11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AP3="","",_CDQ_day_hour!AP3)</f>
         <v/>
       </c>
-      <c r="AS11" s="67" t="str">
+      <c r="AS11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AQ3="","",_CDQ_day_hour!AQ3)</f>
         <v/>
       </c>
-      <c r="AT11" s="67" t="str">
+      <c r="AT11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AR3="","",_CDQ_day_hour!AR3)</f>
         <v/>
       </c>
-      <c r="AU11" s="67" t="str">
+      <c r="AU11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AS3="","",_CDQ_day_hour!AS3)</f>
         <v/>
       </c>
-      <c r="AV11" s="67" t="str">
+      <c r="AV11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AT3="","",_CDQ_day_hour!AT3)</f>
         <v/>
       </c>
-      <c r="AW11" s="67" t="str">
+      <c r="AW11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AU3="","",_CDQ_day_hour!AU3)</f>
         <v/>
       </c>
-      <c r="AX11" s="67" t="str">
+      <c r="AX11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AV3="","",_CDQ_day_hour!AV3)</f>
         <v/>
       </c>
-      <c r="AY11" s="67" t="str">
+      <c r="AY11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AW3="","",_CDQ_day_hour!AW3)</f>
         <v/>
       </c>
-      <c r="AZ11" s="67" t="str">
+      <c r="AZ11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AX3="","",_CDQ_day_hour!AX3)</f>
         <v/>
       </c>
-      <c r="BA11" s="67" t="str">
+      <c r="BA11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AY3="","",_CDQ_day_hour!AY3)</f>
         <v/>
       </c>
-      <c r="BB11" s="68" t="str">
+      <c r="BB11" s="69" t="str">
         <f>IF(_CDQ_day_hour!AZ3="","",_CDQ_day_hour!AZ3)</f>
         <v/>
       </c>
-      <c r="BC11" s="67" t="str">
+      <c r="BC11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BA3="","",_CDQ_day_hour!BA3)</f>
         <v/>
       </c>
-      <c r="BD11" s="67" t="str">
+      <c r="BD11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BB3="","",_CDQ_day_hour!BB3)</f>
         <v/>
       </c>
-      <c r="BE11" s="67" t="str">
+      <c r="BE11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BC3="","",_CDQ_day_hour!BC3)</f>
         <v/>
       </c>
-      <c r="BF11" s="67" t="str">
+      <c r="BF11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BD3="","",_CDQ_day_hour!BD3)</f>
         <v/>
       </c>
-      <c r="BG11" s="67" t="str">
+      <c r="BG11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BE3="","",_CDQ_day_hour!BE3)</f>
         <v/>
       </c>
-      <c r="BH11" s="67" t="str">
+      <c r="BH11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BF3="","",_CDQ_day_hour!BF3)</f>
         <v/>
       </c>
-      <c r="BI11" s="71" t="str">
+      <c r="BI11" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG3="","",_CDQ_day_hour!BG3)</f>
         <v/>
       </c>
-      <c r="BJ11" s="68" t="str">
+      <c r="BJ11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BH3="","",_CDQ_day_hour!BH3)</f>
         <v/>
       </c>
-      <c r="BK11" s="68" t="str">
+      <c r="BK11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BI3="","",_CDQ_day_hour!BI3)</f>
         <v/>
       </c>
-      <c r="BL11" s="68" t="str">
+      <c r="BL11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BJ3="","",_CDQ_day_hour!BJ3)</f>
         <v/>
       </c>
-      <c r="BM11" s="68" t="str">
+      <c r="BM11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BK3="","",_CDQ_day_hour!BK3)</f>
         <v/>
       </c>
-      <c r="BN11" s="68" t="str">
+      <c r="BN11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BL3="","",_CDQ_day_hour!BL3)</f>
         <v/>
       </c>
-      <c r="BO11" s="67" t="str">
+      <c r="BO11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BM3="","",_CDQ_day_hour!BM3)</f>
         <v/>
       </c>
-      <c r="BP11" s="67" t="str">
+      <c r="BP11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BN3="","",_CDQ_day_hour!BN3)</f>
         <v/>
       </c>
-      <c r="BQ11" s="67" t="str">
+      <c r="BQ11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BO3="","",_CDQ_day_hour!BO3)</f>
         <v/>
       </c>
-      <c r="BR11" s="67" t="str">
+      <c r="BR11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BP3="","",_CDQ_day_hour!BP3)</f>
         <v/>
       </c>
-      <c r="BS11" s="67" t="str">
+      <c r="BS11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BQ3="","",_CDQ_day_hour!BQ3)</f>
         <v/>
       </c>
-      <c r="BT11" s="67" t="str">
+      <c r="BT11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BR3="","",_CDQ_day_hour!BR3)</f>
         <v/>
       </c>
-      <c r="BU11" s="67" t="str">
+      <c r="BU11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BS3="","",_CDQ_day_hour!BS3)</f>
         <v/>
       </c>
-      <c r="BV11" s="67" t="str">
+      <c r="BV11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BT3="","",_CDQ_day_hour!BT3)</f>
         <v/>
       </c>
-      <c r="BW11" s="67" t="str">
+      <c r="BW11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BU3="","",_CDQ_day_hour!BU3)</f>
         <v/>
       </c>
-      <c r="BX11" s="67" t="str">
+      <c r="BX11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BV3="","",_CDQ_day_hour!BV3)</f>
         <v/>
       </c>
-      <c r="BY11" s="67" t="str">
+      <c r="BY11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BW3="","",_CDQ_day_hour!BW3)</f>
         <v/>
       </c>
-      <c r="BZ11" s="67" t="str">
+      <c r="BZ11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BX3="","",_CDQ_day_hour!BX3)</f>
         <v/>
       </c>
-      <c r="CA11" s="67" t="str">
+      <c r="CA11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BY3="","",_CDQ_day_hour!BY3)</f>
         <v/>
       </c>
-      <c r="CB11" s="80" t="str">
+      <c r="CB11" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ3="","",_CDQ_day_hour!BZ3)</f>
         <v/>
       </c>
@@ -6214,7 +6236,7 @@
         <f>IF(_CDQ_day_hour!AO4="","",_CDQ_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="AR12" s="68" t="str">
+      <c r="AR12" s="69" t="str">
         <f>IF(_CDQ_day_hour!AP4="","",_CDQ_day_hour!AP4)</f>
         <v/>
       </c>
@@ -6282,7 +6304,7 @@
         <f>IF(_CDQ_day_hour!BF4="","",_CDQ_day_hour!BF4)</f>
         <v/>
       </c>
-      <c r="BI12" s="72" t="str">
+      <c r="BI12" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG4="","",_CDQ_day_hour!BG4)</f>
         <v/>
       </c>
@@ -6358,7 +6380,7 @@
         <f>IF(_CDQ_day_hour!BY4="","",_CDQ_day_hour!BY4)</f>
         <v/>
       </c>
-      <c r="CB12" s="81" t="str">
+      <c r="CB12" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ4="","",_CDQ_day_hour!BZ4)</f>
         <v/>
       </c>
@@ -6532,7 +6554,7 @@
         <f>IF(_CDQ_day_hour!AO5="","",_CDQ_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="AR13" s="68" t="str">
+      <c r="AR13" s="69" t="str">
         <f>IF(_CDQ_day_hour!AP5="","",_CDQ_day_hour!AP5)</f>
         <v/>
       </c>
@@ -6600,7 +6622,7 @@
         <f>IF(_CDQ_day_hour!BF5="","",_CDQ_day_hour!BF5)</f>
         <v/>
       </c>
-      <c r="BI13" s="72" t="str">
+      <c r="BI13" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG5="","",_CDQ_day_hour!BG5)</f>
         <v/>
       </c>
@@ -6676,7 +6698,7 @@
         <f>IF(_CDQ_day_hour!BY5="","",_CDQ_day_hour!BY5)</f>
         <v/>
       </c>
-      <c r="CB13" s="81" t="str">
+      <c r="CB13" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ5="","",_CDQ_day_hour!BZ5)</f>
         <v/>
       </c>
@@ -6850,7 +6872,7 @@
         <f>IF(_CDQ_day_hour!AO6="","",_CDQ_day_hour!AO6)</f>
         <v/>
       </c>
-      <c r="AR14" s="69" t="str">
+      <c r="AR14" s="70" t="str">
         <f>IF(_CDQ_day_hour!AP6="","",_CDQ_day_hour!AP6)</f>
         <v/>
       </c>
@@ -6918,7 +6940,7 @@
         <f>IF(_CDQ_day_hour!BF6="","",_CDQ_day_hour!BF6)</f>
         <v/>
       </c>
-      <c r="BI14" s="72" t="str">
+      <c r="BI14" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG6="","",_CDQ_day_hour!BG6)</f>
         <v/>
       </c>
@@ -6994,7 +7016,7 @@
         <f>IF(_CDQ_day_hour!BY6="","",_CDQ_day_hour!BY6)</f>
         <v/>
       </c>
-      <c r="CB14" s="81" t="str">
+      <c r="CB14" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ6="","",_CDQ_day_hour!BZ6)</f>
         <v/>
       </c>
@@ -7168,7 +7190,7 @@
         <f>IF(_CDQ_day_hour!AO7="","",_CDQ_day_hour!AO7)</f>
         <v/>
       </c>
-      <c r="AR15" s="69" t="str">
+      <c r="AR15" s="70" t="str">
         <f>IF(_CDQ_day_hour!AP7="","",_CDQ_day_hour!AP7)</f>
         <v/>
       </c>
@@ -7236,7 +7258,7 @@
         <f>IF(_CDQ_day_hour!BF7="","",_CDQ_day_hour!BF7)</f>
         <v/>
       </c>
-      <c r="BI15" s="72" t="str">
+      <c r="BI15" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG7="","",_CDQ_day_hour!BG7)</f>
         <v/>
       </c>
@@ -7312,7 +7334,7 @@
         <f>IF(_CDQ_day_hour!BY7="","",_CDQ_day_hour!BY7)</f>
         <v/>
       </c>
-      <c r="CB15" s="81" t="str">
+      <c r="CB15" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ7="","",_CDQ_day_hour!BZ7)</f>
         <v/>
       </c>
@@ -7486,7 +7508,7 @@
         <f>IF(_CDQ_day_hour!AO8="","",_CDQ_day_hour!AO8)</f>
         <v/>
       </c>
-      <c r="AR16" s="69" t="str">
+      <c r="AR16" s="70" t="str">
         <f>IF(_CDQ_day_hour!AP8="","",_CDQ_day_hour!AP8)</f>
         <v/>
       </c>
@@ -7554,7 +7576,7 @@
         <f>IF(_CDQ_day_hour!BF8="","",_CDQ_day_hour!BF8)</f>
         <v/>
       </c>
-      <c r="BI16" s="72" t="str">
+      <c r="BI16" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG8="","",_CDQ_day_hour!BG8)</f>
         <v/>
       </c>
@@ -7630,7 +7652,7 @@
         <f>IF(_CDQ_day_hour!BY8="","",_CDQ_day_hour!BY8)</f>
         <v/>
       </c>
-      <c r="CB16" s="81" t="str">
+      <c r="CB16" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ8="","",_CDQ_day_hour!BZ8)</f>
         <v/>
       </c>
@@ -7804,7 +7826,7 @@
         <f>IF(_CDQ_day_hour!AO9="","",_CDQ_day_hour!AO9)</f>
         <v/>
       </c>
-      <c r="AR17" s="69" t="str">
+      <c r="AR17" s="70" t="str">
         <f>IF(_CDQ_day_hour!AP9="","",_CDQ_day_hour!AP9)</f>
         <v/>
       </c>
@@ -7872,7 +7894,7 @@
         <f>IF(_CDQ_day_hour!BF9="","",_CDQ_day_hour!BF9)</f>
         <v/>
       </c>
-      <c r="BI17" s="72" t="str">
+      <c r="BI17" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG9="","",_CDQ_day_hour!BG9)</f>
         <v/>
       </c>
@@ -7948,7 +7970,7 @@
         <f>IF(_CDQ_day_hour!BY9="","",_CDQ_day_hour!BY9)</f>
         <v/>
       </c>
-      <c r="CB17" s="81" t="str">
+      <c r="CB17" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ9="","",_CDQ_day_hour!BZ9)</f>
         <v/>
       </c>
@@ -8122,7 +8144,7 @@
         <f>IF(_CDQ_day_hour!AO10="","",_CDQ_day_hour!AO10)</f>
         <v/>
       </c>
-      <c r="AR18" s="69" t="str">
+      <c r="AR18" s="70" t="str">
         <f>IF(_CDQ_day_hour!AP10="","",_CDQ_day_hour!AP10)</f>
         <v/>
       </c>
@@ -8190,7 +8212,7 @@
         <f>IF(_CDQ_day_hour!BF10="","",_CDQ_day_hour!BF10)</f>
         <v/>
       </c>
-      <c r="BI18" s="72" t="str">
+      <c r="BI18" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG10="","",_CDQ_day_hour!BG10)</f>
         <v/>
       </c>
@@ -8266,7 +8288,7 @@
         <f>IF(_CDQ_day_hour!BY10="","",_CDQ_day_hour!BY10)</f>
         <v/>
       </c>
-      <c r="CB18" s="81" t="str">
+      <c r="CB18" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ10="","",_CDQ_day_hour!BZ10)</f>
         <v/>
       </c>
@@ -8440,7 +8462,7 @@
         <f>IF(_CDQ_day_hour!AO11="","",_CDQ_day_hour!AO11)</f>
         <v/>
       </c>
-      <c r="AR19" s="69" t="str">
+      <c r="AR19" s="70" t="str">
         <f>IF(_CDQ_day_hour!AP11="","",_CDQ_day_hour!AP11)</f>
         <v/>
       </c>
@@ -8508,7 +8530,7 @@
         <f>IF(_CDQ_day_hour!BF11="","",_CDQ_day_hour!BF11)</f>
         <v/>
       </c>
-      <c r="BI19" s="72" t="str">
+      <c r="BI19" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG11="","",_CDQ_day_hour!BG11)</f>
         <v/>
       </c>
@@ -8584,7 +8606,7 @@
         <f>IF(_CDQ_day_hour!BY11="","",_CDQ_day_hour!BY11)</f>
         <v/>
       </c>
-      <c r="CB19" s="81" t="str">
+      <c r="CB19" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ11="","",_CDQ_day_hour!BZ11)</f>
         <v/>
       </c>
@@ -8826,7 +8848,7 @@
         <f>IF(_CDQ_day_hour!BF12="","",_CDQ_day_hour!BF12)</f>
         <v/>
       </c>
-      <c r="BI20" s="72" t="str">
+      <c r="BI20" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG12="","",_CDQ_day_hour!BG12)</f>
         <v/>
       </c>
@@ -8902,7 +8924,7 @@
         <f>IF(_CDQ_day_hour!BY12="","",_CDQ_day_hour!BY12)</f>
         <v/>
       </c>
-      <c r="CB20" s="81" t="str">
+      <c r="CB20" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ12="","",_CDQ_day_hour!BZ12)</f>
         <v/>
       </c>
@@ -9144,7 +9166,7 @@
         <f>IF(_CDQ_day_hour!BF13="","",_CDQ_day_hour!BF13)</f>
         <v/>
       </c>
-      <c r="BI21" s="72" t="str">
+      <c r="BI21" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG13="","",_CDQ_day_hour!BG13)</f>
         <v/>
       </c>
@@ -9220,7 +9242,7 @@
         <f>IF(_CDQ_day_hour!BY13="","",_CDQ_day_hour!BY13)</f>
         <v/>
       </c>
-      <c r="CB21" s="81" t="str">
+      <c r="CB21" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ13="","",_CDQ_day_hour!BZ13)</f>
         <v/>
       </c>
@@ -9462,7 +9484,7 @@
         <f>IF(_CDQ_day_hour!BF14="","",_CDQ_day_hour!BF14)</f>
         <v/>
       </c>
-      <c r="BI22" s="72" t="str">
+      <c r="BI22" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG14="","",_CDQ_day_hour!BG14)</f>
         <v/>
       </c>
@@ -9538,7 +9560,7 @@
         <f>IF(_CDQ_day_hour!BY14="","",_CDQ_day_hour!BY14)</f>
         <v/>
       </c>
-      <c r="CB22" s="81" t="str">
+      <c r="CB22" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ14="","",_CDQ_day_hour!BZ14)</f>
         <v/>
       </c>
@@ -9780,7 +9802,7 @@
         <f>IF(_CDQ_day_hour!BF15="","",_CDQ_day_hour!BF15)</f>
         <v/>
       </c>
-      <c r="BI23" s="72" t="str">
+      <c r="BI23" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG15="","",_CDQ_day_hour!BG15)</f>
         <v/>
       </c>
@@ -9856,7 +9878,7 @@
         <f>IF(_CDQ_day_hour!BY15="","",_CDQ_day_hour!BY15)</f>
         <v/>
       </c>
-      <c r="CB23" s="81" t="str">
+      <c r="CB23" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ15="","",_CDQ_day_hour!BZ15)</f>
         <v/>
       </c>
@@ -10098,7 +10120,7 @@
         <f>IF(_CDQ_day_hour!BF16="","",_CDQ_day_hour!BF16)</f>
         <v/>
       </c>
-      <c r="BI24" s="72" t="str">
+      <c r="BI24" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG16="","",_CDQ_day_hour!BG16)</f>
         <v/>
       </c>
@@ -10174,7 +10196,7 @@
         <f>IF(_CDQ_day_hour!BY16="","",_CDQ_day_hour!BY16)</f>
         <v/>
       </c>
-      <c r="CB24" s="81" t="str">
+      <c r="CB24" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ16="","",_CDQ_day_hour!BZ16)</f>
         <v/>
       </c>
@@ -10416,7 +10438,7 @@
         <f>IF(_CDQ_day_hour!BF17="","",_CDQ_day_hour!BF17)</f>
         <v/>
       </c>
-      <c r="BI25" s="72" t="str">
+      <c r="BI25" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG17="","",_CDQ_day_hour!BG17)</f>
         <v/>
       </c>
@@ -10492,7 +10514,7 @@
         <f>IF(_CDQ_day_hour!BY17="","",_CDQ_day_hour!BY17)</f>
         <v/>
       </c>
-      <c r="CB25" s="81" t="str">
+      <c r="CB25" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ17="","",_CDQ_day_hour!BZ17)</f>
         <v/>
       </c>
@@ -10734,7 +10756,7 @@
         <f>IF(_CDQ_day_hour!BF18="","",_CDQ_day_hour!BF18)</f>
         <v/>
       </c>
-      <c r="BI26" s="72" t="str">
+      <c r="BI26" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG18="","",_CDQ_day_hour!BG18)</f>
         <v/>
       </c>
@@ -10810,7 +10832,7 @@
         <f>IF(_CDQ_day_hour!BY18="","",_CDQ_day_hour!BY18)</f>
         <v/>
       </c>
-      <c r="CB26" s="81" t="str">
+      <c r="CB26" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ18="","",_CDQ_day_hour!BZ18)</f>
         <v/>
       </c>
@@ -11052,7 +11074,7 @@
         <f>IF(_CDQ_day_hour!BF19="","",_CDQ_day_hour!BF19)</f>
         <v/>
       </c>
-      <c r="BI27" s="72" t="str">
+      <c r="BI27" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG19="","",_CDQ_day_hour!BG19)</f>
         <v/>
       </c>
@@ -11128,7 +11150,7 @@
         <f>IF(_CDQ_day_hour!BY19="","",_CDQ_day_hour!BY19)</f>
         <v/>
       </c>
-      <c r="CB27" s="81" t="str">
+      <c r="CB27" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ19="","",_CDQ_day_hour!BZ19)</f>
         <v/>
       </c>
@@ -11370,7 +11392,7 @@
         <f>IF(_CDQ_day_hour!BF20="","",_CDQ_day_hour!BF20)</f>
         <v/>
       </c>
-      <c r="BI28" s="72" t="str">
+      <c r="BI28" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG20="","",_CDQ_day_hour!BG20)</f>
         <v/>
       </c>
@@ -11446,7 +11468,7 @@
         <f>IF(_CDQ_day_hour!BY20="","",_CDQ_day_hour!BY20)</f>
         <v/>
       </c>
-      <c r="CB28" s="81" t="str">
+      <c r="CB28" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ20="","",_CDQ_day_hour!BZ20)</f>
         <v/>
       </c>
@@ -11688,7 +11710,7 @@
         <f>IF(_CDQ_day_hour!BF21="","",_CDQ_day_hour!BF21)</f>
         <v/>
       </c>
-      <c r="BI29" s="72" t="str">
+      <c r="BI29" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG21="","",_CDQ_day_hour!BG21)</f>
         <v/>
       </c>
@@ -11764,7 +11786,7 @@
         <f>IF(_CDQ_day_hour!BY21="","",_CDQ_day_hour!BY21)</f>
         <v/>
       </c>
-      <c r="CB29" s="81" t="str">
+      <c r="CB29" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ21="","",_CDQ_day_hour!BZ21)</f>
         <v/>
       </c>
@@ -12006,7 +12028,7 @@
         <f>IF(_CDQ_day_hour!BF22="","",_CDQ_day_hour!BF22)</f>
         <v/>
       </c>
-      <c r="BI30" s="72" t="str">
+      <c r="BI30" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG22="","",_CDQ_day_hour!BG22)</f>
         <v/>
       </c>
@@ -12082,7 +12104,7 @@
         <f>IF(_CDQ_day_hour!BY22="","",_CDQ_day_hour!BY22)</f>
         <v/>
       </c>
-      <c r="CB30" s="81" t="str">
+      <c r="CB30" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ22="","",_CDQ_day_hour!BZ22)</f>
         <v/>
       </c>
@@ -12324,7 +12346,7 @@
         <f>IF(_CDQ_day_hour!BF23="","",_CDQ_day_hour!BF23)</f>
         <v/>
       </c>
-      <c r="BI31" s="72" t="str">
+      <c r="BI31" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG23="","",_CDQ_day_hour!BG23)</f>
         <v/>
       </c>
@@ -12400,7 +12422,7 @@
         <f>IF(_CDQ_day_hour!BY23="","",_CDQ_day_hour!BY23)</f>
         <v/>
       </c>
-      <c r="CB31" s="81" t="str">
+      <c r="CB31" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ23="","",_CDQ_day_hour!BZ23)</f>
         <v/>
       </c>
@@ -12642,7 +12664,7 @@
         <f>IF(_CDQ_day_hour!BF24="","",_CDQ_day_hour!BF24)</f>
         <v/>
       </c>
-      <c r="BI32" s="72" t="str">
+      <c r="BI32" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG24="","",_CDQ_day_hour!BG24)</f>
         <v/>
       </c>
@@ -12718,7 +12740,7 @@
         <f>IF(_CDQ_day_hour!BY24="","",_CDQ_day_hour!BY24)</f>
         <v/>
       </c>
-      <c r="CB32" s="81" t="str">
+      <c r="CB32" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ24="","",_CDQ_day_hour!BZ24)</f>
         <v/>
       </c>
@@ -12864,103 +12886,103 @@
         <f>IF(_CDQ_day_hour!AH25="","",_CDQ_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK33" s="60" t="str">
+      <c r="AK33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AI25="","",_CDQ_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL33" s="60" t="str">
+      <c r="AL33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AJ25="","",_CDQ_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM33" s="60" t="str">
+      <c r="AM33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AK25="","",_CDQ_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN33" s="60" t="str">
+      <c r="AN33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AL25="","",_CDQ_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO33" s="60" t="str">
+      <c r="AO33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AM25="","",_CDQ_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP33" s="60" t="str">
+      <c r="AP33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AN25="","",_CDQ_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ33" s="60" t="str">
+      <c r="AQ33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AO25="","",_CDQ_day_hour!AO25)</f>
         <v/>
       </c>
-      <c r="AR33" s="60" t="str">
+      <c r="AR33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AP25="","",_CDQ_day_hour!AP25)</f>
         <v/>
       </c>
-      <c r="AS33" s="60" t="str">
+      <c r="AS33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AQ25="","",_CDQ_day_hour!AQ25)</f>
         <v/>
       </c>
-      <c r="AT33" s="60" t="str">
+      <c r="AT33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AR25="","",_CDQ_day_hour!AR25)</f>
         <v/>
       </c>
-      <c r="AU33" s="60" t="str">
+      <c r="AU33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AS25="","",_CDQ_day_hour!AS25)</f>
         <v/>
       </c>
-      <c r="AV33" s="60" t="str">
+      <c r="AV33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AT25="","",_CDQ_day_hour!AT25)</f>
         <v/>
       </c>
-      <c r="AW33" s="60" t="str">
+      <c r="AW33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AU25="","",_CDQ_day_hour!AU25)</f>
         <v/>
       </c>
-      <c r="AX33" s="60" t="str">
+      <c r="AX33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AV25="","",_CDQ_day_hour!AV25)</f>
         <v/>
       </c>
-      <c r="AY33" s="60" t="str">
+      <c r="AY33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AW25="","",_CDQ_day_hour!AW25)</f>
         <v/>
       </c>
-      <c r="AZ33" s="60" t="str">
+      <c r="AZ33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AX25="","",_CDQ_day_hour!AX25)</f>
         <v/>
       </c>
-      <c r="BA33" s="60" t="str">
+      <c r="BA33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AY25="","",_CDQ_day_hour!AY25)</f>
         <v/>
       </c>
-      <c r="BB33" s="60" t="str">
+      <c r="BB33" s="61" t="str">
         <f>IF(_CDQ_day_hour!AZ25="","",_CDQ_day_hour!AZ25)</f>
         <v/>
       </c>
-      <c r="BC33" s="60" t="str">
+      <c r="BC33" s="61" t="str">
         <f>IF(_CDQ_day_hour!BA25="","",_CDQ_day_hour!BA25)</f>
         <v/>
       </c>
-      <c r="BD33" s="60" t="str">
+      <c r="BD33" s="61" t="str">
         <f>IF(_CDQ_day_hour!BB25="","",_CDQ_day_hour!BB25)</f>
         <v/>
       </c>
-      <c r="BE33" s="60" t="str">
+      <c r="BE33" s="61" t="str">
         <f>IF(_CDQ_day_hour!BC25="","",_CDQ_day_hour!BC25)</f>
         <v/>
       </c>
-      <c r="BF33" s="60" t="str">
+      <c r="BF33" s="61" t="str">
         <f>IF(_CDQ_day_hour!BD25="","",_CDQ_day_hour!BD25)</f>
         <v/>
       </c>
-      <c r="BG33" s="60" t="str">
+      <c r="BG33" s="61" t="str">
         <f>IF(_CDQ_day_hour!BE25="","",_CDQ_day_hour!BE25)</f>
         <v/>
       </c>
-      <c r="BH33" s="60" t="str">
+      <c r="BH33" s="61" t="str">
         <f>IF(_CDQ_day_hour!BF25="","",_CDQ_day_hour!BF25)</f>
         <v/>
       </c>
-      <c r="BI33" s="73" t="str">
+      <c r="BI33" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG25="","",_CDQ_day_hour!BG25)</f>
         <v/>
       </c>
@@ -13036,7 +13058,7 @@
         <f>IF(_CDQ_day_hour!BY25="","",_CDQ_day_hour!BY25)</f>
         <v/>
       </c>
-      <c r="CB33" s="81" t="str">
+      <c r="CB33" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ25="","",_CDQ_day_hour!BZ25)</f>
         <v/>
       </c>
@@ -13123,7 +13145,7 @@
       <c r="BY34" s="33"/>
       <c r="BZ34" s="33"/>
       <c r="CA34" s="33"/>
-      <c r="CB34" s="81"/>
+      <c r="CB34" s="82"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="18.95" customHeight="1" spans="1:80">
       <c r="A35" s="7"/>
@@ -13207,7 +13229,7 @@
       <c r="BY35" s="33"/>
       <c r="BZ35" s="33"/>
       <c r="CA35" s="33"/>
-      <c r="CB35" s="81"/>
+      <c r="CB35" s="82"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:80">
       <c r="A36" s="7"/>
@@ -13291,7 +13313,7 @@
       <c r="BY36" s="33"/>
       <c r="BZ36" s="33"/>
       <c r="CA36" s="33"/>
-      <c r="CB36" s="81"/>
+      <c r="CB36" s="82"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:80">
       <c r="A37" s="7"/>
@@ -13375,7 +13397,7 @@
       <c r="BY37" s="33"/>
       <c r="BZ37" s="33"/>
       <c r="CA37" s="33"/>
-      <c r="CB37" s="81"/>
+      <c r="CB37" s="82"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="119.45" customHeight="1" spans="1:80">
       <c r="A38" s="7"/>
@@ -13418,52 +13440,52 @@
       <c r="AF38" s="45"/>
       <c r="AG38" s="45"/>
       <c r="AH38" s="53"/>
-      <c r="AI38" s="61"/>
-      <c r="AJ38" s="61"/>
-      <c r="AK38" s="61"/>
-      <c r="AL38" s="61"/>
-      <c r="AM38" s="61"/>
-      <c r="AN38" s="61"/>
-      <c r="AO38" s="61"/>
-      <c r="AP38" s="61"/>
-      <c r="AQ38" s="61"/>
-      <c r="AR38" s="61"/>
-      <c r="AS38" s="61"/>
-      <c r="AT38" s="61"/>
-      <c r="AU38" s="61"/>
-      <c r="AV38" s="61"/>
-      <c r="AW38" s="61"/>
-      <c r="AX38" s="61"/>
-      <c r="AY38" s="61"/>
-      <c r="AZ38" s="61"/>
-      <c r="BA38" s="61"/>
-      <c r="BB38" s="61"/>
-      <c r="BC38" s="61"/>
-      <c r="BD38" s="61"/>
-      <c r="BE38" s="61"/>
-      <c r="BF38" s="61"/>
-      <c r="BG38" s="61"/>
-      <c r="BH38" s="61"/>
-      <c r="BI38" s="61"/>
-      <c r="BJ38" s="61"/>
-      <c r="BK38" s="61"/>
-      <c r="BL38" s="61"/>
-      <c r="BM38" s="61"/>
-      <c r="BN38" s="61"/>
-      <c r="BO38" s="61"/>
-      <c r="BP38" s="61"/>
-      <c r="BQ38" s="61"/>
-      <c r="BR38" s="61"/>
-      <c r="BS38" s="61"/>
-      <c r="BT38" s="61"/>
-      <c r="BU38" s="61"/>
-      <c r="BV38" s="61"/>
-      <c r="BW38" s="61"/>
-      <c r="BX38" s="61"/>
-      <c r="BY38" s="61"/>
-      <c r="BZ38" s="61"/>
-      <c r="CA38" s="61"/>
-      <c r="CB38" s="82"/>
+      <c r="AI38" s="62"/>
+      <c r="AJ38" s="62"/>
+      <c r="AK38" s="62"/>
+      <c r="AL38" s="62"/>
+      <c r="AM38" s="62"/>
+      <c r="AN38" s="62"/>
+      <c r="AO38" s="62"/>
+      <c r="AP38" s="62"/>
+      <c r="AQ38" s="62"/>
+      <c r="AR38" s="62"/>
+      <c r="AS38" s="62"/>
+      <c r="AT38" s="62"/>
+      <c r="AU38" s="62"/>
+      <c r="AV38" s="62"/>
+      <c r="AW38" s="62"/>
+      <c r="AX38" s="62"/>
+      <c r="AY38" s="62"/>
+      <c r="AZ38" s="62"/>
+      <c r="BA38" s="62"/>
+      <c r="BB38" s="62"/>
+      <c r="BC38" s="62"/>
+      <c r="BD38" s="62"/>
+      <c r="BE38" s="62"/>
+      <c r="BF38" s="62"/>
+      <c r="BG38" s="62"/>
+      <c r="BH38" s="62"/>
+      <c r="BI38" s="62"/>
+      <c r="BJ38" s="62"/>
+      <c r="BK38" s="62"/>
+      <c r="BL38" s="62"/>
+      <c r="BM38" s="62"/>
+      <c r="BN38" s="62"/>
+      <c r="BO38" s="62"/>
+      <c r="BP38" s="62"/>
+      <c r="BQ38" s="62"/>
+      <c r="BR38" s="62"/>
+      <c r="BS38" s="62"/>
+      <c r="BT38" s="62"/>
+      <c r="BU38" s="62"/>
+      <c r="BV38" s="62"/>
+      <c r="BW38" s="62"/>
+      <c r="BX38" s="62"/>
+      <c r="BY38" s="62"/>
+      <c r="BZ38" s="62"/>
+      <c r="CA38" s="62"/>
+      <c r="CB38" s="83"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="16.5" spans="1:80">
       <c r="A39" s="7"/>
@@ -13506,52 +13528,52 @@
       <c r="AF39" s="47"/>
       <c r="AG39" s="47"/>
       <c r="AH39" s="54"/>
-      <c r="AI39" s="62"/>
-      <c r="AJ39" s="62"/>
-      <c r="AK39" s="62"/>
-      <c r="AL39" s="62"/>
-      <c r="AM39" s="62"/>
-      <c r="AN39" s="62"/>
-      <c r="AO39" s="62"/>
-      <c r="AP39" s="62"/>
-      <c r="AQ39" s="62"/>
-      <c r="AR39" s="62"/>
-      <c r="AS39" s="62"/>
-      <c r="AT39" s="62"/>
-      <c r="AU39" s="62"/>
-      <c r="AV39" s="62"/>
-      <c r="AW39" s="62"/>
-      <c r="AX39" s="62"/>
-      <c r="AY39" s="62"/>
-      <c r="AZ39" s="62"/>
-      <c r="BA39" s="62"/>
-      <c r="BB39" s="62"/>
-      <c r="BC39" s="62"/>
-      <c r="BD39" s="62"/>
-      <c r="BE39" s="62"/>
-      <c r="BF39" s="62"/>
-      <c r="BG39" s="62"/>
-      <c r="BH39" s="62"/>
-      <c r="BI39" s="62"/>
-      <c r="BJ39" s="62"/>
-      <c r="BK39" s="62"/>
-      <c r="BL39" s="62"/>
-      <c r="BM39" s="62"/>
-      <c r="BN39" s="62"/>
-      <c r="BO39" s="62"/>
-      <c r="BP39" s="62"/>
-      <c r="BQ39" s="62"/>
-      <c r="BR39" s="62"/>
-      <c r="BS39" s="62"/>
-      <c r="BT39" s="62"/>
-      <c r="BU39" s="62"/>
-      <c r="BV39" s="62"/>
-      <c r="BW39" s="62"/>
-      <c r="BX39" s="62"/>
-      <c r="BY39" s="62"/>
-      <c r="BZ39" s="62"/>
-      <c r="CA39" s="62"/>
-      <c r="CB39" s="83"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="63"/>
+      <c r="AK39" s="63"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="63"/>
+      <c r="AN39" s="63"/>
+      <c r="AO39" s="63"/>
+      <c r="AP39" s="63"/>
+      <c r="AQ39" s="63"/>
+      <c r="AR39" s="63"/>
+      <c r="AS39" s="63"/>
+      <c r="AT39" s="63"/>
+      <c r="AU39" s="63"/>
+      <c r="AV39" s="63"/>
+      <c r="AW39" s="63"/>
+      <c r="AX39" s="63"/>
+      <c r="AY39" s="63"/>
+      <c r="AZ39" s="63"/>
+      <c r="BA39" s="63"/>
+      <c r="BB39" s="63"/>
+      <c r="BC39" s="63"/>
+      <c r="BD39" s="63"/>
+      <c r="BE39" s="63"/>
+      <c r="BF39" s="63"/>
+      <c r="BG39" s="63"/>
+      <c r="BH39" s="63"/>
+      <c r="BI39" s="63"/>
+      <c r="BJ39" s="63"/>
+      <c r="BK39" s="63"/>
+      <c r="BL39" s="63"/>
+      <c r="BM39" s="63"/>
+      <c r="BN39" s="63"/>
+      <c r="BO39" s="63"/>
+      <c r="BP39" s="63"/>
+      <c r="BQ39" s="63"/>
+      <c r="BR39" s="63"/>
+      <c r="BS39" s="63"/>
+      <c r="BT39" s="63"/>
+      <c r="BU39" s="63"/>
+      <c r="BV39" s="63"/>
+      <c r="BW39" s="63"/>
+      <c r="BX39" s="63"/>
+      <c r="BY39" s="63"/>
+      <c r="BZ39" s="63"/>
+      <c r="CA39" s="63"/>
+      <c r="CB39" s="84"/>
     </row>
     <row r="40" spans="46:59">
       <c r="AT40" s="8"/>
@@ -13666,9 +13688,11 @@
       <c r="BF46" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="90">
     <mergeCell ref="B1:AJ1"/>
-    <mergeCell ref="B2:AK2"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:CB2"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="O3:AA3"/>
     <mergeCell ref="AB3:AO3"/>

--- a/excel/finished/焦化/CK67-CDQ操作运行报表（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-CDQ操作运行报表（日）报表设计.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="1.CDQ操作运行报表（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_CDQ_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -2339,11 +2337,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -2456,6 +2455,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2463,8 +2478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2477,9 +2493,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2493,16 +2508,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2510,14 +2517,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2532,8 +2546,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2541,17 +2563,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2563,23 +2577,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2656,61 +2655,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2728,19 +2697,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2752,91 +2835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3213,17 +3212,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3233,15 +3241,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3261,13 +3260,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3289,24 +3292,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3316,10 +3315,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3328,140 +3327,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3595,6 +3594,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3757,19 +3759,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4032,8 +4021,8 @@
   <sheetPr/>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:CB2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25"/>
@@ -4178,80 +4167,80 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="11" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="55" t="s">
+      <c r="L2" s="48">
+        <f>_metadata!B1</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="55"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="55"/>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="55"/>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="55"/>
-      <c r="BN2" s="55"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="55"/>
-      <c r="BQ2" s="55"/>
-      <c r="BR2" s="55"/>
-      <c r="BS2" s="55"/>
-      <c r="BT2" s="55"/>
-      <c r="BU2" s="55"/>
-      <c r="BV2" s="55"/>
-      <c r="BW2" s="55"/>
-      <c r="BX2" s="55"/>
-      <c r="BY2" s="55"/>
-      <c r="BZ2" s="55"/>
-      <c r="CA2" s="55"/>
-      <c r="CB2" s="55"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="56"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="56"/>
+      <c r="BS2" s="56"/>
+      <c r="BT2" s="56"/>
+      <c r="BU2" s="56"/>
+      <c r="BV2" s="56"/>
+      <c r="BW2" s="56"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="56"/>
+      <c r="BZ2" s="56"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="56"/>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:80">
       <c r="A3" s="12"/>
@@ -4272,21 +4261,21 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
       <c r="AB3" s="14" t="s">
         <v>5</v>
       </c>
@@ -4353,7 +4342,7 @@
       <c r="BY3" s="14"/>
       <c r="BZ3" s="14"/>
       <c r="CA3" s="14"/>
-      <c r="CB3" s="75"/>
+      <c r="CB3" s="76"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="29.25" customHeight="1" spans="1:80">
       <c r="A4" s="12"/>
@@ -4446,23 +4435,23 @@
       <c r="AH4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="50" t="s">
+      <c r="AI4" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="57" t="s">
+      <c r="AJ4" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="57" t="s">
+      <c r="AK4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57" t="s">
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="AN4" s="57" t="s">
+      <c r="AN4" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="AO4" s="57"/>
+      <c r="AO4" s="58"/>
       <c r="AP4" s="18" t="s">
         <v>45</v>
       </c>
@@ -4528,16 +4517,16 @@
       <c r="BP4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="BQ4" s="71" t="s">
+      <c r="BQ4" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="BR4" s="71" t="s">
+      <c r="BR4" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="BS4" s="71" t="s">
+      <c r="BS4" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="BT4" s="71" t="s">
+      <c r="BT4" s="72" t="s">
         <v>65</v>
       </c>
       <c r="BU4" s="18" t="s">
@@ -4561,7 +4550,7 @@
       <c r="CA4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="CB4" s="76" t="s">
+      <c r="CB4" s="77" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4600,13 +4589,13 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
-      <c r="AI5" s="58"/>
+      <c r="AI5" s="59"/>
       <c r="AJ5" s="18"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="57"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
       <c r="AM5" s="18"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
       <c r="AP5" s="18"/>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="18"/>
@@ -4614,7 +4603,7 @@
       <c r="AT5" s="18"/>
       <c r="AU5" s="18"/>
       <c r="AV5" s="18"/>
-      <c r="AW5" s="71"/>
+      <c r="AW5" s="72"/>
       <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="AZ5" s="18"/>
@@ -4634,18 +4623,18 @@
       <c r="BN5" s="18"/>
       <c r="BO5" s="18"/>
       <c r="BP5" s="18"/>
-      <c r="BQ5" s="71"/>
-      <c r="BR5" s="71"/>
-      <c r="BS5" s="71"/>
-      <c r="BT5" s="71"/>
-      <c r="BU5" s="57"/>
+      <c r="BQ5" s="72"/>
+      <c r="BR5" s="72"/>
+      <c r="BS5" s="72"/>
+      <c r="BT5" s="72"/>
+      <c r="BU5" s="58"/>
       <c r="BV5" s="18"/>
       <c r="BW5" s="18"/>
       <c r="BX5" s="18"/>
       <c r="BY5" s="18"/>
       <c r="BZ5" s="18"/>
       <c r="CA5" s="18"/>
-      <c r="CB5" s="76"/>
+      <c r="CB5" s="77"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="54" customHeight="1" spans="1:80">
       <c r="A6" s="12"/>
@@ -4698,7 +4687,7 @@
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
-      <c r="AI6" s="59"/>
+      <c r="AI6" s="60"/>
       <c r="AJ6" s="18"/>
       <c r="AK6" s="22" t="s">
         <v>76</v>
@@ -4707,10 +4696,10 @@
         <v>77</v>
       </c>
       <c r="AM6" s="18"/>
-      <c r="AN6" s="60" t="s">
+      <c r="AN6" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AO6" s="60" t="s">
+      <c r="AO6" s="61" t="s">
         <v>79</v>
       </c>
       <c r="AP6" s="18"/>
@@ -4726,7 +4715,7 @@
       <c r="AV6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AW6" s="71"/>
+      <c r="AW6" s="72"/>
       <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="AZ6" s="18"/>
@@ -4770,18 +4759,18 @@
       </c>
       <c r="BO6" s="18"/>
       <c r="BP6" s="18"/>
-      <c r="BQ6" s="71"/>
-      <c r="BR6" s="71"/>
-      <c r="BS6" s="71"/>
-      <c r="BT6" s="71"/>
-      <c r="BU6" s="57"/>
+      <c r="BQ6" s="72"/>
+      <c r="BR6" s="72"/>
+      <c r="BS6" s="72"/>
+      <c r="BT6" s="72"/>
+      <c r="BU6" s="58"/>
       <c r="BV6" s="18"/>
       <c r="BW6" s="18"/>
       <c r="BX6" s="18"/>
       <c r="BY6" s="18"/>
       <c r="BZ6" s="18"/>
       <c r="CA6" s="18"/>
-      <c r="CB6" s="76"/>
+      <c r="CB6" s="77"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="44.45" hidden="1" customHeight="1" spans="1:80">
       <c r="A7" s="12"/>
@@ -4843,7 +4832,7 @@
       <c r="AA7" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="56" t="s">
+      <c r="AB7" s="57" t="s">
         <v>99</v>
       </c>
       <c r="AC7" s="26" t="s">
@@ -4859,103 +4848,103 @@
       <c r="AI7" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="AJ7" s="56" t="s">
+      <c r="AJ7" s="57" t="s">
         <v>102</v>
       </c>
       <c r="AK7" s="26" t="s">
         <v>103</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="56" t="s">
+      <c r="AM7" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="AN7" s="56"/>
+      <c r="AN7" s="57"/>
       <c r="AO7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="AP7" s="64" t="s">
+      <c r="AP7" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="AQ7" s="64" t="s">
+      <c r="AQ7" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="AR7" s="65" t="s">
+      <c r="AR7" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="AS7" s="65" t="s">
+      <c r="AS7" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="AT7" s="65" t="s">
+      <c r="AT7" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65" t="s">
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="AX7" s="65" t="s">
+      <c r="AX7" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="AY7" s="65" t="s">
+      <c r="AY7" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="AZ7" s="65" t="s">
+      <c r="AZ7" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="BA7" s="65" t="s">
+      <c r="BA7" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="BB7" s="65"/>
-      <c r="BC7" s="65" t="s">
+      <c r="BB7" s="66"/>
+      <c r="BC7" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="BD7" s="65" t="s">
+      <c r="BD7" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="BE7" s="65"/>
-      <c r="BF7" s="65" t="s">
+      <c r="BE7" s="66"/>
+      <c r="BF7" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="BG7" s="65"/>
-      <c r="BH7" s="65" t="s">
+      <c r="BG7" s="66"/>
+      <c r="BH7" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="BI7" s="65" t="s">
+      <c r="BI7" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="BJ7" s="65"/>
-      <c r="BK7" s="65"/>
-      <c r="BL7" s="65"/>
-      <c r="BM7" s="65"/>
-      <c r="BN7" s="65"/>
-      <c r="BO7" s="65" t="s">
+      <c r="BJ7" s="66"/>
+      <c r="BK7" s="66"/>
+      <c r="BL7" s="66"/>
+      <c r="BM7" s="66"/>
+      <c r="BN7" s="66"/>
+      <c r="BO7" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="BP7" s="65" t="s">
+      <c r="BP7" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="BQ7" s="65" t="s">
+      <c r="BQ7" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="BR7" s="65" t="s">
+      <c r="BR7" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="BS7" s="65" t="s">
+      <c r="BS7" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="BT7" s="65" t="s">
+      <c r="BT7" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="BU7" s="65"/>
-      <c r="BV7" s="65"/>
-      <c r="BW7" s="64" t="s">
+      <c r="BU7" s="66"/>
+      <c r="BV7" s="66"/>
+      <c r="BW7" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="BX7" s="65"/>
-      <c r="BY7" s="64"/>
-      <c r="BZ7" s="65"/>
-      <c r="CA7" s="65"/>
-      <c r="CB7" s="77"/>
+      <c r="BX7" s="66"/>
+      <c r="BY7" s="65"/>
+      <c r="BZ7" s="66"/>
+      <c r="CA7" s="66"/>
+      <c r="CB7" s="78"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="66" hidden="1" customHeight="1" spans="1:80">
       <c r="A8" s="12"/>
@@ -4987,7 +4976,7 @@
       <c r="K8" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="50" t="s">
         <v>131</v>
       </c>
       <c r="M8" s="28" t="s">
@@ -4999,88 +4988,88 @@
       <c r="O8" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="50" t="s">
+      <c r="P8" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="Q8" s="50" t="s">
+      <c r="Q8" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="R8" s="50" t="s">
+      <c r="R8" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="T8" s="50" t="s">
+      <c r="T8" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="U8" s="50" t="s">
+      <c r="U8" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="V8" s="50" t="s">
+      <c r="V8" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="W8" s="49" t="s">
+      <c r="W8" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="X8" s="50" t="s">
+      <c r="X8" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="Y8" s="50" t="s">
+      <c r="Y8" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="Z8" s="49" t="s">
+      <c r="Z8" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="AA8" s="50" t="s">
+      <c r="AA8" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="AB8" s="50" t="s">
+      <c r="AB8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="AC8" s="50" t="s">
+      <c r="AC8" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="AD8" s="50" t="s">
+      <c r="AD8" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="AE8" s="50" t="s">
+      <c r="AE8" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AF8" s="50" t="s">
+      <c r="AF8" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="AG8" s="50" t="s">
+      <c r="AG8" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="AH8" s="50" t="s">
+      <c r="AH8" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="AI8" s="50" t="s">
+      <c r="AI8" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AJ8" s="50" t="s">
+      <c r="AJ8" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="AK8" s="50" t="s">
+      <c r="AK8" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="AL8" s="50" t="s">
+      <c r="AL8" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="AM8" s="50" t="s">
+      <c r="AM8" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="AN8" s="50" t="s">
+      <c r="AN8" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="AO8" s="50" t="s">
+      <c r="AO8" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AP8" s="66" t="s">
+      <c r="AP8" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="AQ8" s="66" t="s">
+      <c r="AQ8" s="67" t="s">
         <v>162</v>
       </c>
       <c r="AR8" s="28" t="s">
@@ -5191,7 +5180,7 @@
       <c r="CA8" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="CB8" s="78" t="s">
+      <c r="CB8" s="79" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5428,8 +5417,8 @@
       <c r="BZ9" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="CA9" s="79"/>
-      <c r="CB9" s="80"/>
+      <c r="CA9" s="80"/>
+      <c r="CB9" s="81"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.6" customHeight="1" spans="1:80">
       <c r="A10" s="7"/>
@@ -5468,11 +5457,11 @@
         <f>IF(_CDQ_day_hour!H2="","",_CDQ_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K10" s="51" t="str">
+      <c r="K10" s="52" t="str">
         <f>IF(_CDQ_day_hour!I2="","",_CDQ_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L10" s="52" t="str">
+      <c r="L10" s="53" t="str">
         <f>IF(_CDQ_day_hour!J2="","",_CDQ_day_hour!J2)</f>
         <v/>
       </c>
@@ -5592,159 +5581,159 @@
         <f>IF(_CDQ_day_hour!AM2="","",_CDQ_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP10" s="67" t="str">
+      <c r="AP10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AN2="","",_CDQ_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ10" s="67" t="str">
+      <c r="AQ10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AO2="","",_CDQ_day_hour!AO2)</f>
         <v/>
       </c>
-      <c r="AR10" s="68" t="str">
+      <c r="AR10" s="69" t="str">
         <f>IF(_CDQ_day_hour!AP2="","",_CDQ_day_hour!AP2)</f>
         <v/>
       </c>
-      <c r="AS10" s="68" t="str">
+      <c r="AS10" s="69" t="str">
         <f>IF(_CDQ_day_hour!AQ2="","",_CDQ_day_hour!AQ2)</f>
         <v/>
       </c>
-      <c r="AT10" s="68" t="str">
+      <c r="AT10" s="69" t="str">
         <f>IF(_CDQ_day_hour!AR2="","",_CDQ_day_hour!AR2)</f>
         <v/>
       </c>
-      <c r="AU10" s="68" t="str">
+      <c r="AU10" s="69" t="str">
         <f>IF(_CDQ_day_hour!AS2="","",_CDQ_day_hour!AS2)</f>
         <v/>
       </c>
-      <c r="AV10" s="68" t="str">
+      <c r="AV10" s="69" t="str">
         <f>IF(_CDQ_day_hour!AT2="","",_CDQ_day_hour!AT2)</f>
         <v/>
       </c>
-      <c r="AW10" s="68" t="str">
+      <c r="AW10" s="69" t="str">
         <f>IF(_CDQ_day_hour!AU2="","",_CDQ_day_hour!AU2)</f>
         <v/>
       </c>
-      <c r="AX10" s="68" t="str">
+      <c r="AX10" s="69" t="str">
         <f>IF(_CDQ_day_hour!AV2="","",_CDQ_day_hour!AV2)</f>
         <v/>
       </c>
-      <c r="AY10" s="68" t="str">
+      <c r="AY10" s="69" t="str">
         <f>IF(_CDQ_day_hour!AW2="","",_CDQ_day_hour!AW2)</f>
         <v/>
       </c>
-      <c r="AZ10" s="68" t="str">
+      <c r="AZ10" s="69" t="str">
         <f>IF(_CDQ_day_hour!AX2="","",_CDQ_day_hour!AX2)</f>
         <v/>
       </c>
-      <c r="BA10" s="68" t="str">
+      <c r="BA10" s="69" t="str">
         <f>IF(_CDQ_day_hour!AY2="","",_CDQ_day_hour!AY2)</f>
         <v/>
       </c>
-      <c r="BB10" s="69" t="str">
+      <c r="BB10" s="70" t="str">
         <f>IF(_CDQ_day_hour!AZ2="","",_CDQ_day_hour!AZ2)</f>
         <v/>
       </c>
-      <c r="BC10" s="68" t="str">
+      <c r="BC10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BA2="","",_CDQ_day_hour!BA2)</f>
         <v/>
       </c>
-      <c r="BD10" s="68" t="str">
+      <c r="BD10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BB2="","",_CDQ_day_hour!BB2)</f>
         <v/>
       </c>
-      <c r="BE10" s="68" t="str">
+      <c r="BE10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BC2="","",_CDQ_day_hour!BC2)</f>
         <v/>
       </c>
-      <c r="BF10" s="68" t="str">
+      <c r="BF10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BD2="","",_CDQ_day_hour!BD2)</f>
         <v/>
       </c>
-      <c r="BG10" s="68" t="str">
+      <c r="BG10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BE2="","",_CDQ_day_hour!BE2)</f>
         <v/>
       </c>
-      <c r="BH10" s="68" t="str">
+      <c r="BH10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BF2="","",_CDQ_day_hour!BF2)</f>
         <v/>
       </c>
-      <c r="BI10" s="72" t="str">
+      <c r="BI10" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG2="","",_CDQ_day_hour!BG2)</f>
         <v/>
       </c>
-      <c r="BJ10" s="69" t="str">
+      <c r="BJ10" s="70" t="str">
         <f>IF(_CDQ_day_hour!BH2="","",_CDQ_day_hour!BH2)</f>
         <v/>
       </c>
-      <c r="BK10" s="69" t="str">
+      <c r="BK10" s="70" t="str">
         <f>IF(_CDQ_day_hour!BI2="","",_CDQ_day_hour!BI2)</f>
         <v/>
       </c>
-      <c r="BL10" s="69" t="str">
+      <c r="BL10" s="70" t="str">
         <f>IF(_CDQ_day_hour!BJ2="","",_CDQ_day_hour!BJ2)</f>
         <v/>
       </c>
-      <c r="BM10" s="69" t="str">
+      <c r="BM10" s="70" t="str">
         <f>IF(_CDQ_day_hour!BK2="","",_CDQ_day_hour!BK2)</f>
         <v/>
       </c>
-      <c r="BN10" s="69" t="str">
+      <c r="BN10" s="70" t="str">
         <f>IF(_CDQ_day_hour!BL2="","",_CDQ_day_hour!BL2)</f>
         <v/>
       </c>
-      <c r="BO10" s="68" t="str">
+      <c r="BO10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BM2="","",_CDQ_day_hour!BM2)</f>
         <v/>
       </c>
-      <c r="BP10" s="68" t="str">
+      <c r="BP10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BN2="","",_CDQ_day_hour!BN2)</f>
         <v/>
       </c>
-      <c r="BQ10" s="68" t="str">
+      <c r="BQ10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BO2="","",_CDQ_day_hour!BO2)</f>
         <v/>
       </c>
-      <c r="BR10" s="68" t="str">
+      <c r="BR10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BP2="","",_CDQ_day_hour!BP2)</f>
         <v/>
       </c>
-      <c r="BS10" s="68" t="str">
+      <c r="BS10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BQ2="","",_CDQ_day_hour!BQ2)</f>
         <v/>
       </c>
-      <c r="BT10" s="68" t="str">
+      <c r="BT10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BR2="","",_CDQ_day_hour!BR2)</f>
         <v/>
       </c>
-      <c r="BU10" s="68" t="str">
+      <c r="BU10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BS2="","",_CDQ_day_hour!BS2)</f>
         <v/>
       </c>
-      <c r="BV10" s="68" t="str">
+      <c r="BV10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BT2="","",_CDQ_day_hour!BT2)</f>
         <v/>
       </c>
-      <c r="BW10" s="68" t="str">
+      <c r="BW10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BU2="","",_CDQ_day_hour!BU2)</f>
         <v/>
       </c>
-      <c r="BX10" s="68" t="str">
+      <c r="BX10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BV2="","",_CDQ_day_hour!BV2)</f>
         <v/>
       </c>
-      <c r="BY10" s="68" t="str">
+      <c r="BY10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BW2="","",_CDQ_day_hour!BW2)</f>
         <v/>
       </c>
-      <c r="BZ10" s="68" t="str">
+      <c r="BZ10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BX2="","",_CDQ_day_hour!BX2)</f>
         <v/>
       </c>
-      <c r="CA10" s="68" t="str">
+      <c r="CA10" s="69" t="str">
         <f>IF(_CDQ_day_hour!BY2="","",_CDQ_day_hour!BY2)</f>
         <v/>
       </c>
-      <c r="CB10" s="81" t="str">
+      <c r="CB10" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ2="","",_CDQ_day_hour!BZ2)</f>
         <v/>
       </c>
@@ -5786,11 +5775,11 @@
         <f>IF(_CDQ_day_hour!H3="","",_CDQ_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K11" s="51" t="str">
+      <c r="K11" s="52" t="str">
         <f>IF(_CDQ_day_hour!I3="","",_CDQ_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L11" s="52" t="str">
+      <c r="L11" s="53" t="str">
         <f>IF(_CDQ_day_hour!J3="","",_CDQ_day_hour!J3)</f>
         <v/>
       </c>
@@ -5910,159 +5899,159 @@
         <f>IF(_CDQ_day_hour!AM3="","",_CDQ_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP11" s="67" t="str">
+      <c r="AP11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AN3="","",_CDQ_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ11" s="67" t="str">
+      <c r="AQ11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AO3="","",_CDQ_day_hour!AO3)</f>
         <v/>
       </c>
-      <c r="AR11" s="68" t="str">
+      <c r="AR11" s="69" t="str">
         <f>IF(_CDQ_day_hour!AP3="","",_CDQ_day_hour!AP3)</f>
         <v/>
       </c>
-      <c r="AS11" s="68" t="str">
+      <c r="AS11" s="69" t="str">
         <f>IF(_CDQ_day_hour!AQ3="","",_CDQ_day_hour!AQ3)</f>
         <v/>
       </c>
-      <c r="AT11" s="68" t="str">
+      <c r="AT11" s="69" t="str">
         <f>IF(_CDQ_day_hour!AR3="","",_CDQ_day_hour!AR3)</f>
         <v/>
       </c>
-      <c r="AU11" s="68" t="str">
+      <c r="AU11" s="69" t="str">
         <f>IF(_CDQ_day_hour!AS3="","",_CDQ_day_hour!AS3)</f>
         <v/>
       </c>
-      <c r="AV11" s="68" t="str">
+      <c r="AV11" s="69" t="str">
         <f>IF(_CDQ_day_hour!AT3="","",_CDQ_day_hour!AT3)</f>
         <v/>
       </c>
-      <c r="AW11" s="68" t="str">
+      <c r="AW11" s="69" t="str">
         <f>IF(_CDQ_day_hour!AU3="","",_CDQ_day_hour!AU3)</f>
         <v/>
       </c>
-      <c r="AX11" s="68" t="str">
+      <c r="AX11" s="69" t="str">
         <f>IF(_CDQ_day_hour!AV3="","",_CDQ_day_hour!AV3)</f>
         <v/>
       </c>
-      <c r="AY11" s="68" t="str">
+      <c r="AY11" s="69" t="str">
         <f>IF(_CDQ_day_hour!AW3="","",_CDQ_day_hour!AW3)</f>
         <v/>
       </c>
-      <c r="AZ11" s="68" t="str">
+      <c r="AZ11" s="69" t="str">
         <f>IF(_CDQ_day_hour!AX3="","",_CDQ_day_hour!AX3)</f>
         <v/>
       </c>
-      <c r="BA11" s="68" t="str">
+      <c r="BA11" s="69" t="str">
         <f>IF(_CDQ_day_hour!AY3="","",_CDQ_day_hour!AY3)</f>
         <v/>
       </c>
-      <c r="BB11" s="69" t="str">
+      <c r="BB11" s="70" t="str">
         <f>IF(_CDQ_day_hour!AZ3="","",_CDQ_day_hour!AZ3)</f>
         <v/>
       </c>
-      <c r="BC11" s="68" t="str">
+      <c r="BC11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BA3="","",_CDQ_day_hour!BA3)</f>
         <v/>
       </c>
-      <c r="BD11" s="68" t="str">
+      <c r="BD11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BB3="","",_CDQ_day_hour!BB3)</f>
         <v/>
       </c>
-      <c r="BE11" s="68" t="str">
+      <c r="BE11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BC3="","",_CDQ_day_hour!BC3)</f>
         <v/>
       </c>
-      <c r="BF11" s="68" t="str">
+      <c r="BF11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BD3="","",_CDQ_day_hour!BD3)</f>
         <v/>
       </c>
-      <c r="BG11" s="68" t="str">
+      <c r="BG11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BE3="","",_CDQ_day_hour!BE3)</f>
         <v/>
       </c>
-      <c r="BH11" s="68" t="str">
+      <c r="BH11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BF3="","",_CDQ_day_hour!BF3)</f>
         <v/>
       </c>
-      <c r="BI11" s="72" t="str">
+      <c r="BI11" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG3="","",_CDQ_day_hour!BG3)</f>
         <v/>
       </c>
-      <c r="BJ11" s="69" t="str">
+      <c r="BJ11" s="70" t="str">
         <f>IF(_CDQ_day_hour!BH3="","",_CDQ_day_hour!BH3)</f>
         <v/>
       </c>
-      <c r="BK11" s="69" t="str">
+      <c r="BK11" s="70" t="str">
         <f>IF(_CDQ_day_hour!BI3="","",_CDQ_day_hour!BI3)</f>
         <v/>
       </c>
-      <c r="BL11" s="69" t="str">
+      <c r="BL11" s="70" t="str">
         <f>IF(_CDQ_day_hour!BJ3="","",_CDQ_day_hour!BJ3)</f>
         <v/>
       </c>
-      <c r="BM11" s="69" t="str">
+      <c r="BM11" s="70" t="str">
         <f>IF(_CDQ_day_hour!BK3="","",_CDQ_day_hour!BK3)</f>
         <v/>
       </c>
-      <c r="BN11" s="69" t="str">
+      <c r="BN11" s="70" t="str">
         <f>IF(_CDQ_day_hour!BL3="","",_CDQ_day_hour!BL3)</f>
         <v/>
       </c>
-      <c r="BO11" s="68" t="str">
+      <c r="BO11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BM3="","",_CDQ_day_hour!BM3)</f>
         <v/>
       </c>
-      <c r="BP11" s="68" t="str">
+      <c r="BP11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BN3="","",_CDQ_day_hour!BN3)</f>
         <v/>
       </c>
-      <c r="BQ11" s="68" t="str">
+      <c r="BQ11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BO3="","",_CDQ_day_hour!BO3)</f>
         <v/>
       </c>
-      <c r="BR11" s="68" t="str">
+      <c r="BR11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BP3="","",_CDQ_day_hour!BP3)</f>
         <v/>
       </c>
-      <c r="BS11" s="68" t="str">
+      <c r="BS11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BQ3="","",_CDQ_day_hour!BQ3)</f>
         <v/>
       </c>
-      <c r="BT11" s="68" t="str">
+      <c r="BT11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BR3="","",_CDQ_day_hour!BR3)</f>
         <v/>
       </c>
-      <c r="BU11" s="68" t="str">
+      <c r="BU11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BS3="","",_CDQ_day_hour!BS3)</f>
         <v/>
       </c>
-      <c r="BV11" s="68" t="str">
+      <c r="BV11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BT3="","",_CDQ_day_hour!BT3)</f>
         <v/>
       </c>
-      <c r="BW11" s="68" t="str">
+      <c r="BW11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BU3="","",_CDQ_day_hour!BU3)</f>
         <v/>
       </c>
-      <c r="BX11" s="68" t="str">
+      <c r="BX11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BV3="","",_CDQ_day_hour!BV3)</f>
         <v/>
       </c>
-      <c r="BY11" s="68" t="str">
+      <c r="BY11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BW3="","",_CDQ_day_hour!BW3)</f>
         <v/>
       </c>
-      <c r="BZ11" s="68" t="str">
+      <c r="BZ11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BX3="","",_CDQ_day_hour!BX3)</f>
         <v/>
       </c>
-      <c r="CA11" s="68" t="str">
+      <c r="CA11" s="69" t="str">
         <f>IF(_CDQ_day_hour!BY3="","",_CDQ_day_hour!BY3)</f>
         <v/>
       </c>
-      <c r="CB11" s="81" t="str">
+      <c r="CB11" s="82" t="str">
         <f>IF(_CDQ_day_hour!BZ3="","",_CDQ_day_hour!BZ3)</f>
         <v/>
       </c>
@@ -6236,7 +6225,7 @@
         <f>IF(_CDQ_day_hour!AO4="","",_CDQ_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="AR12" s="69" t="str">
+      <c r="AR12" s="70" t="str">
         <f>IF(_CDQ_day_hour!AP4="","",_CDQ_day_hour!AP4)</f>
         <v/>
       </c>
@@ -6304,7 +6293,7 @@
         <f>IF(_CDQ_day_hour!BF4="","",_CDQ_day_hour!BF4)</f>
         <v/>
       </c>
-      <c r="BI12" s="73" t="str">
+      <c r="BI12" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG4="","",_CDQ_day_hour!BG4)</f>
         <v/>
       </c>
@@ -6380,7 +6369,7 @@
         <f>IF(_CDQ_day_hour!BY4="","",_CDQ_day_hour!BY4)</f>
         <v/>
       </c>
-      <c r="CB12" s="82" t="str">
+      <c r="CB12" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ4="","",_CDQ_day_hour!BZ4)</f>
         <v/>
       </c>
@@ -6554,7 +6543,7 @@
         <f>IF(_CDQ_day_hour!AO5="","",_CDQ_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="AR13" s="69" t="str">
+      <c r="AR13" s="70" t="str">
         <f>IF(_CDQ_day_hour!AP5="","",_CDQ_day_hour!AP5)</f>
         <v/>
       </c>
@@ -6622,7 +6611,7 @@
         <f>IF(_CDQ_day_hour!BF5="","",_CDQ_day_hour!BF5)</f>
         <v/>
       </c>
-      <c r="BI13" s="73" t="str">
+      <c r="BI13" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG5="","",_CDQ_day_hour!BG5)</f>
         <v/>
       </c>
@@ -6698,7 +6687,7 @@
         <f>IF(_CDQ_day_hour!BY5="","",_CDQ_day_hour!BY5)</f>
         <v/>
       </c>
-      <c r="CB13" s="82" t="str">
+      <c r="CB13" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ5="","",_CDQ_day_hour!BZ5)</f>
         <v/>
       </c>
@@ -6872,7 +6861,7 @@
         <f>IF(_CDQ_day_hour!AO6="","",_CDQ_day_hour!AO6)</f>
         <v/>
       </c>
-      <c r="AR14" s="70" t="str">
+      <c r="AR14" s="71" t="str">
         <f>IF(_CDQ_day_hour!AP6="","",_CDQ_day_hour!AP6)</f>
         <v/>
       </c>
@@ -6940,7 +6929,7 @@
         <f>IF(_CDQ_day_hour!BF6="","",_CDQ_day_hour!BF6)</f>
         <v/>
       </c>
-      <c r="BI14" s="73" t="str">
+      <c r="BI14" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG6="","",_CDQ_day_hour!BG6)</f>
         <v/>
       </c>
@@ -7016,7 +7005,7 @@
         <f>IF(_CDQ_day_hour!BY6="","",_CDQ_day_hour!BY6)</f>
         <v/>
       </c>
-      <c r="CB14" s="82" t="str">
+      <c r="CB14" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ6="","",_CDQ_day_hour!BZ6)</f>
         <v/>
       </c>
@@ -7190,7 +7179,7 @@
         <f>IF(_CDQ_day_hour!AO7="","",_CDQ_day_hour!AO7)</f>
         <v/>
       </c>
-      <c r="AR15" s="70" t="str">
+      <c r="AR15" s="71" t="str">
         <f>IF(_CDQ_day_hour!AP7="","",_CDQ_day_hour!AP7)</f>
         <v/>
       </c>
@@ -7258,7 +7247,7 @@
         <f>IF(_CDQ_day_hour!BF7="","",_CDQ_day_hour!BF7)</f>
         <v/>
       </c>
-      <c r="BI15" s="73" t="str">
+      <c r="BI15" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG7="","",_CDQ_day_hour!BG7)</f>
         <v/>
       </c>
@@ -7334,7 +7323,7 @@
         <f>IF(_CDQ_day_hour!BY7="","",_CDQ_day_hour!BY7)</f>
         <v/>
       </c>
-      <c r="CB15" s="82" t="str">
+      <c r="CB15" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ7="","",_CDQ_day_hour!BZ7)</f>
         <v/>
       </c>
@@ -7508,7 +7497,7 @@
         <f>IF(_CDQ_day_hour!AO8="","",_CDQ_day_hour!AO8)</f>
         <v/>
       </c>
-      <c r="AR16" s="70" t="str">
+      <c r="AR16" s="71" t="str">
         <f>IF(_CDQ_day_hour!AP8="","",_CDQ_day_hour!AP8)</f>
         <v/>
       </c>
@@ -7576,7 +7565,7 @@
         <f>IF(_CDQ_day_hour!BF8="","",_CDQ_day_hour!BF8)</f>
         <v/>
       </c>
-      <c r="BI16" s="73" t="str">
+      <c r="BI16" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG8="","",_CDQ_day_hour!BG8)</f>
         <v/>
       </c>
@@ -7652,7 +7641,7 @@
         <f>IF(_CDQ_day_hour!BY8="","",_CDQ_day_hour!BY8)</f>
         <v/>
       </c>
-      <c r="CB16" s="82" t="str">
+      <c r="CB16" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ8="","",_CDQ_day_hour!BZ8)</f>
         <v/>
       </c>
@@ -7826,7 +7815,7 @@
         <f>IF(_CDQ_day_hour!AO9="","",_CDQ_day_hour!AO9)</f>
         <v/>
       </c>
-      <c r="AR17" s="70" t="str">
+      <c r="AR17" s="71" t="str">
         <f>IF(_CDQ_day_hour!AP9="","",_CDQ_day_hour!AP9)</f>
         <v/>
       </c>
@@ -7894,7 +7883,7 @@
         <f>IF(_CDQ_day_hour!BF9="","",_CDQ_day_hour!BF9)</f>
         <v/>
       </c>
-      <c r="BI17" s="73" t="str">
+      <c r="BI17" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG9="","",_CDQ_day_hour!BG9)</f>
         <v/>
       </c>
@@ -7970,7 +7959,7 @@
         <f>IF(_CDQ_day_hour!BY9="","",_CDQ_day_hour!BY9)</f>
         <v/>
       </c>
-      <c r="CB17" s="82" t="str">
+      <c r="CB17" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ9="","",_CDQ_day_hour!BZ9)</f>
         <v/>
       </c>
@@ -8144,7 +8133,7 @@
         <f>IF(_CDQ_day_hour!AO10="","",_CDQ_day_hour!AO10)</f>
         <v/>
       </c>
-      <c r="AR18" s="70" t="str">
+      <c r="AR18" s="71" t="str">
         <f>IF(_CDQ_day_hour!AP10="","",_CDQ_day_hour!AP10)</f>
         <v/>
       </c>
@@ -8212,7 +8201,7 @@
         <f>IF(_CDQ_day_hour!BF10="","",_CDQ_day_hour!BF10)</f>
         <v/>
       </c>
-      <c r="BI18" s="73" t="str">
+      <c r="BI18" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG10="","",_CDQ_day_hour!BG10)</f>
         <v/>
       </c>
@@ -8288,7 +8277,7 @@
         <f>IF(_CDQ_day_hour!BY10="","",_CDQ_day_hour!BY10)</f>
         <v/>
       </c>
-      <c r="CB18" s="82" t="str">
+      <c r="CB18" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ10="","",_CDQ_day_hour!BZ10)</f>
         <v/>
       </c>
@@ -8462,7 +8451,7 @@
         <f>IF(_CDQ_day_hour!AO11="","",_CDQ_day_hour!AO11)</f>
         <v/>
       </c>
-      <c r="AR19" s="70" t="str">
+      <c r="AR19" s="71" t="str">
         <f>IF(_CDQ_day_hour!AP11="","",_CDQ_day_hour!AP11)</f>
         <v/>
       </c>
@@ -8530,7 +8519,7 @@
         <f>IF(_CDQ_day_hour!BF11="","",_CDQ_day_hour!BF11)</f>
         <v/>
       </c>
-      <c r="BI19" s="73" t="str">
+      <c r="BI19" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG11="","",_CDQ_day_hour!BG11)</f>
         <v/>
       </c>
@@ -8606,7 +8595,7 @@
         <f>IF(_CDQ_day_hour!BY11="","",_CDQ_day_hour!BY11)</f>
         <v/>
       </c>
-      <c r="CB19" s="82" t="str">
+      <c r="CB19" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ11="","",_CDQ_day_hour!BZ11)</f>
         <v/>
       </c>
@@ -8848,7 +8837,7 @@
         <f>IF(_CDQ_day_hour!BF12="","",_CDQ_day_hour!BF12)</f>
         <v/>
       </c>
-      <c r="BI20" s="73" t="str">
+      <c r="BI20" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG12="","",_CDQ_day_hour!BG12)</f>
         <v/>
       </c>
@@ -8924,7 +8913,7 @@
         <f>IF(_CDQ_day_hour!BY12="","",_CDQ_day_hour!BY12)</f>
         <v/>
       </c>
-      <c r="CB20" s="82" t="str">
+      <c r="CB20" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ12="","",_CDQ_day_hour!BZ12)</f>
         <v/>
       </c>
@@ -9166,7 +9155,7 @@
         <f>IF(_CDQ_day_hour!BF13="","",_CDQ_day_hour!BF13)</f>
         <v/>
       </c>
-      <c r="BI21" s="73" t="str">
+      <c r="BI21" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG13="","",_CDQ_day_hour!BG13)</f>
         <v/>
       </c>
@@ -9242,7 +9231,7 @@
         <f>IF(_CDQ_day_hour!BY13="","",_CDQ_day_hour!BY13)</f>
         <v/>
       </c>
-      <c r="CB21" s="82" t="str">
+      <c r="CB21" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ13="","",_CDQ_day_hour!BZ13)</f>
         <v/>
       </c>
@@ -9484,7 +9473,7 @@
         <f>IF(_CDQ_day_hour!BF14="","",_CDQ_day_hour!BF14)</f>
         <v/>
       </c>
-      <c r="BI22" s="73" t="str">
+      <c r="BI22" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG14="","",_CDQ_day_hour!BG14)</f>
         <v/>
       </c>
@@ -9560,7 +9549,7 @@
         <f>IF(_CDQ_day_hour!BY14="","",_CDQ_day_hour!BY14)</f>
         <v/>
       </c>
-      <c r="CB22" s="82" t="str">
+      <c r="CB22" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ14="","",_CDQ_day_hour!BZ14)</f>
         <v/>
       </c>
@@ -9802,7 +9791,7 @@
         <f>IF(_CDQ_day_hour!BF15="","",_CDQ_day_hour!BF15)</f>
         <v/>
       </c>
-      <c r="BI23" s="73" t="str">
+      <c r="BI23" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG15="","",_CDQ_day_hour!BG15)</f>
         <v/>
       </c>
@@ -9878,7 +9867,7 @@
         <f>IF(_CDQ_day_hour!BY15="","",_CDQ_day_hour!BY15)</f>
         <v/>
       </c>
-      <c r="CB23" s="82" t="str">
+      <c r="CB23" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ15="","",_CDQ_day_hour!BZ15)</f>
         <v/>
       </c>
@@ -10120,7 +10109,7 @@
         <f>IF(_CDQ_day_hour!BF16="","",_CDQ_day_hour!BF16)</f>
         <v/>
       </c>
-      <c r="BI24" s="73" t="str">
+      <c r="BI24" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG16="","",_CDQ_day_hour!BG16)</f>
         <v/>
       </c>
@@ -10196,7 +10185,7 @@
         <f>IF(_CDQ_day_hour!BY16="","",_CDQ_day_hour!BY16)</f>
         <v/>
       </c>
-      <c r="CB24" s="82" t="str">
+      <c r="CB24" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ16="","",_CDQ_day_hour!BZ16)</f>
         <v/>
       </c>
@@ -10438,7 +10427,7 @@
         <f>IF(_CDQ_day_hour!BF17="","",_CDQ_day_hour!BF17)</f>
         <v/>
       </c>
-      <c r="BI25" s="73" t="str">
+      <c r="BI25" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG17="","",_CDQ_day_hour!BG17)</f>
         <v/>
       </c>
@@ -10514,7 +10503,7 @@
         <f>IF(_CDQ_day_hour!BY17="","",_CDQ_day_hour!BY17)</f>
         <v/>
       </c>
-      <c r="CB25" s="82" t="str">
+      <c r="CB25" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ17="","",_CDQ_day_hour!BZ17)</f>
         <v/>
       </c>
@@ -10756,7 +10745,7 @@
         <f>IF(_CDQ_day_hour!BF18="","",_CDQ_day_hour!BF18)</f>
         <v/>
       </c>
-      <c r="BI26" s="73" t="str">
+      <c r="BI26" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG18="","",_CDQ_day_hour!BG18)</f>
         <v/>
       </c>
@@ -10832,7 +10821,7 @@
         <f>IF(_CDQ_day_hour!BY18="","",_CDQ_day_hour!BY18)</f>
         <v/>
       </c>
-      <c r="CB26" s="82" t="str">
+      <c r="CB26" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ18="","",_CDQ_day_hour!BZ18)</f>
         <v/>
       </c>
@@ -11074,7 +11063,7 @@
         <f>IF(_CDQ_day_hour!BF19="","",_CDQ_day_hour!BF19)</f>
         <v/>
       </c>
-      <c r="BI27" s="73" t="str">
+      <c r="BI27" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG19="","",_CDQ_day_hour!BG19)</f>
         <v/>
       </c>
@@ -11150,7 +11139,7 @@
         <f>IF(_CDQ_day_hour!BY19="","",_CDQ_day_hour!BY19)</f>
         <v/>
       </c>
-      <c r="CB27" s="82" t="str">
+      <c r="CB27" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ19="","",_CDQ_day_hour!BZ19)</f>
         <v/>
       </c>
@@ -11392,7 +11381,7 @@
         <f>IF(_CDQ_day_hour!BF20="","",_CDQ_day_hour!BF20)</f>
         <v/>
       </c>
-      <c r="BI28" s="73" t="str">
+      <c r="BI28" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG20="","",_CDQ_day_hour!BG20)</f>
         <v/>
       </c>
@@ -11468,7 +11457,7 @@
         <f>IF(_CDQ_day_hour!BY20="","",_CDQ_day_hour!BY20)</f>
         <v/>
       </c>
-      <c r="CB28" s="82" t="str">
+      <c r="CB28" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ20="","",_CDQ_day_hour!BZ20)</f>
         <v/>
       </c>
@@ -11710,7 +11699,7 @@
         <f>IF(_CDQ_day_hour!BF21="","",_CDQ_day_hour!BF21)</f>
         <v/>
       </c>
-      <c r="BI29" s="73" t="str">
+      <c r="BI29" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG21="","",_CDQ_day_hour!BG21)</f>
         <v/>
       </c>
@@ -11786,7 +11775,7 @@
         <f>IF(_CDQ_day_hour!BY21="","",_CDQ_day_hour!BY21)</f>
         <v/>
       </c>
-      <c r="CB29" s="82" t="str">
+      <c r="CB29" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ21="","",_CDQ_day_hour!BZ21)</f>
         <v/>
       </c>
@@ -12028,7 +12017,7 @@
         <f>IF(_CDQ_day_hour!BF22="","",_CDQ_day_hour!BF22)</f>
         <v/>
       </c>
-      <c r="BI30" s="73" t="str">
+      <c r="BI30" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG22="","",_CDQ_day_hour!BG22)</f>
         <v/>
       </c>
@@ -12104,7 +12093,7 @@
         <f>IF(_CDQ_day_hour!BY22="","",_CDQ_day_hour!BY22)</f>
         <v/>
       </c>
-      <c r="CB30" s="82" t="str">
+      <c r="CB30" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ22="","",_CDQ_day_hour!BZ22)</f>
         <v/>
       </c>
@@ -12346,7 +12335,7 @@
         <f>IF(_CDQ_day_hour!BF23="","",_CDQ_day_hour!BF23)</f>
         <v/>
       </c>
-      <c r="BI31" s="73" t="str">
+      <c r="BI31" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG23="","",_CDQ_day_hour!BG23)</f>
         <v/>
       </c>
@@ -12422,7 +12411,7 @@
         <f>IF(_CDQ_day_hour!BY23="","",_CDQ_day_hour!BY23)</f>
         <v/>
       </c>
-      <c r="CB31" s="82" t="str">
+      <c r="CB31" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ23="","",_CDQ_day_hour!BZ23)</f>
         <v/>
       </c>
@@ -12664,7 +12653,7 @@
         <f>IF(_CDQ_day_hour!BF24="","",_CDQ_day_hour!BF24)</f>
         <v/>
       </c>
-      <c r="BI32" s="73" t="str">
+      <c r="BI32" s="74" t="str">
         <f>IF(_CDQ_day_hour!BG24="","",_CDQ_day_hour!BG24)</f>
         <v/>
       </c>
@@ -12740,7 +12729,7 @@
         <f>IF(_CDQ_day_hour!BY24="","",_CDQ_day_hour!BY24)</f>
         <v/>
       </c>
-      <c r="CB32" s="82" t="str">
+      <c r="CB32" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ24="","",_CDQ_day_hour!BZ24)</f>
         <v/>
       </c>
@@ -12886,103 +12875,103 @@
         <f>IF(_CDQ_day_hour!AH25="","",_CDQ_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK33" s="61" t="str">
+      <c r="AK33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AI25="","",_CDQ_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL33" s="61" t="str">
+      <c r="AL33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AJ25="","",_CDQ_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM33" s="61" t="str">
+      <c r="AM33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AK25="","",_CDQ_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN33" s="61" t="str">
+      <c r="AN33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AL25="","",_CDQ_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO33" s="61" t="str">
+      <c r="AO33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AM25="","",_CDQ_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP33" s="61" t="str">
+      <c r="AP33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AN25="","",_CDQ_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ33" s="61" t="str">
+      <c r="AQ33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AO25="","",_CDQ_day_hour!AO25)</f>
         <v/>
       </c>
-      <c r="AR33" s="61" t="str">
+      <c r="AR33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AP25="","",_CDQ_day_hour!AP25)</f>
         <v/>
       </c>
-      <c r="AS33" s="61" t="str">
+      <c r="AS33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AQ25="","",_CDQ_day_hour!AQ25)</f>
         <v/>
       </c>
-      <c r="AT33" s="61" t="str">
+      <c r="AT33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AR25="","",_CDQ_day_hour!AR25)</f>
         <v/>
       </c>
-      <c r="AU33" s="61" t="str">
+      <c r="AU33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AS25="","",_CDQ_day_hour!AS25)</f>
         <v/>
       </c>
-      <c r="AV33" s="61" t="str">
+      <c r="AV33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AT25="","",_CDQ_day_hour!AT25)</f>
         <v/>
       </c>
-      <c r="AW33" s="61" t="str">
+      <c r="AW33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AU25="","",_CDQ_day_hour!AU25)</f>
         <v/>
       </c>
-      <c r="AX33" s="61" t="str">
+      <c r="AX33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AV25="","",_CDQ_day_hour!AV25)</f>
         <v/>
       </c>
-      <c r="AY33" s="61" t="str">
+      <c r="AY33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AW25="","",_CDQ_day_hour!AW25)</f>
         <v/>
       </c>
-      <c r="AZ33" s="61" t="str">
+      <c r="AZ33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AX25="","",_CDQ_day_hour!AX25)</f>
         <v/>
       </c>
-      <c r="BA33" s="61" t="str">
+      <c r="BA33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AY25="","",_CDQ_day_hour!AY25)</f>
         <v/>
       </c>
-      <c r="BB33" s="61" t="str">
+      <c r="BB33" s="62" t="str">
         <f>IF(_CDQ_day_hour!AZ25="","",_CDQ_day_hour!AZ25)</f>
         <v/>
       </c>
-      <c r="BC33" s="61" t="str">
+      <c r="BC33" s="62" t="str">
         <f>IF(_CDQ_day_hour!BA25="","",_CDQ_day_hour!BA25)</f>
         <v/>
       </c>
-      <c r="BD33" s="61" t="str">
+      <c r="BD33" s="62" t="str">
         <f>IF(_CDQ_day_hour!BB25="","",_CDQ_day_hour!BB25)</f>
         <v/>
       </c>
-      <c r="BE33" s="61" t="str">
+      <c r="BE33" s="62" t="str">
         <f>IF(_CDQ_day_hour!BC25="","",_CDQ_day_hour!BC25)</f>
         <v/>
       </c>
-      <c r="BF33" s="61" t="str">
+      <c r="BF33" s="62" t="str">
         <f>IF(_CDQ_day_hour!BD25="","",_CDQ_day_hour!BD25)</f>
         <v/>
       </c>
-      <c r="BG33" s="61" t="str">
+      <c r="BG33" s="62" t="str">
         <f>IF(_CDQ_day_hour!BE25="","",_CDQ_day_hour!BE25)</f>
         <v/>
       </c>
-      <c r="BH33" s="61" t="str">
+      <c r="BH33" s="62" t="str">
         <f>IF(_CDQ_day_hour!BF25="","",_CDQ_day_hour!BF25)</f>
         <v/>
       </c>
-      <c r="BI33" s="74" t="str">
+      <c r="BI33" s="75" t="str">
         <f>IF(_CDQ_day_hour!BG25="","",_CDQ_day_hour!BG25)</f>
         <v/>
       </c>
@@ -13058,7 +13047,7 @@
         <f>IF(_CDQ_day_hour!BY25="","",_CDQ_day_hour!BY25)</f>
         <v/>
       </c>
-      <c r="CB33" s="82" t="str">
+      <c r="CB33" s="83" t="str">
         <f>IF(_CDQ_day_hour!BZ25="","",_CDQ_day_hour!BZ25)</f>
         <v/>
       </c>
@@ -13145,7 +13134,7 @@
       <c r="BY34" s="33"/>
       <c r="BZ34" s="33"/>
       <c r="CA34" s="33"/>
-      <c r="CB34" s="82"/>
+      <c r="CB34" s="83"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="18.95" customHeight="1" spans="1:80">
       <c r="A35" s="7"/>
@@ -13229,7 +13218,7 @@
       <c r="BY35" s="33"/>
       <c r="BZ35" s="33"/>
       <c r="CA35" s="33"/>
-      <c r="CB35" s="82"/>
+      <c r="CB35" s="83"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:80">
       <c r="A36" s="7"/>
@@ -13313,7 +13302,7 @@
       <c r="BY36" s="33"/>
       <c r="BZ36" s="33"/>
       <c r="CA36" s="33"/>
-      <c r="CB36" s="82"/>
+      <c r="CB36" s="83"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:80">
       <c r="A37" s="7"/>
@@ -13397,7 +13386,7 @@
       <c r="BY37" s="33"/>
       <c r="BZ37" s="33"/>
       <c r="CA37" s="33"/>
-      <c r="CB37" s="82"/>
+      <c r="CB37" s="83"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="119.45" customHeight="1" spans="1:80">
       <c r="A38" s="7"/>
@@ -13413,7 +13402,7 @@
       <c r="I38" s="45"/>
       <c r="J38" s="45"/>
       <c r="K38" s="45"/>
-      <c r="L38" s="53"/>
+      <c r="L38" s="54"/>
       <c r="M38" s="44" t="s">
         <v>280</v>
       </c>
@@ -13426,7 +13415,7 @@
       <c r="T38" s="45"/>
       <c r="U38" s="45"/>
       <c r="V38" s="45"/>
-      <c r="W38" s="53"/>
+      <c r="W38" s="54"/>
       <c r="X38" s="44" t="s">
         <v>281</v>
       </c>
@@ -13439,53 +13428,53 @@
       <c r="AE38" s="45"/>
       <c r="AF38" s="45"/>
       <c r="AG38" s="45"/>
-      <c r="AH38" s="53"/>
-      <c r="AI38" s="62"/>
-      <c r="AJ38" s="62"/>
-      <c r="AK38" s="62"/>
-      <c r="AL38" s="62"/>
-      <c r="AM38" s="62"/>
-      <c r="AN38" s="62"/>
-      <c r="AO38" s="62"/>
-      <c r="AP38" s="62"/>
-      <c r="AQ38" s="62"/>
-      <c r="AR38" s="62"/>
-      <c r="AS38" s="62"/>
-      <c r="AT38" s="62"/>
-      <c r="AU38" s="62"/>
-      <c r="AV38" s="62"/>
-      <c r="AW38" s="62"/>
-      <c r="AX38" s="62"/>
-      <c r="AY38" s="62"/>
-      <c r="AZ38" s="62"/>
-      <c r="BA38" s="62"/>
-      <c r="BB38" s="62"/>
-      <c r="BC38" s="62"/>
-      <c r="BD38" s="62"/>
-      <c r="BE38" s="62"/>
-      <c r="BF38" s="62"/>
-      <c r="BG38" s="62"/>
-      <c r="BH38" s="62"/>
-      <c r="BI38" s="62"/>
-      <c r="BJ38" s="62"/>
-      <c r="BK38" s="62"/>
-      <c r="BL38" s="62"/>
-      <c r="BM38" s="62"/>
-      <c r="BN38" s="62"/>
-      <c r="BO38" s="62"/>
-      <c r="BP38" s="62"/>
-      <c r="BQ38" s="62"/>
-      <c r="BR38" s="62"/>
-      <c r="BS38" s="62"/>
-      <c r="BT38" s="62"/>
-      <c r="BU38" s="62"/>
-      <c r="BV38" s="62"/>
-      <c r="BW38" s="62"/>
-      <c r="BX38" s="62"/>
-      <c r="BY38" s="62"/>
-      <c r="BZ38" s="62"/>
-      <c r="CA38" s="62"/>
-      <c r="CB38" s="83"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="63"/>
+      <c r="AJ38" s="63"/>
+      <c r="AK38" s="63"/>
+      <c r="AL38" s="63"/>
+      <c r="AM38" s="63"/>
+      <c r="AN38" s="63"/>
+      <c r="AO38" s="63"/>
+      <c r="AP38" s="63"/>
+      <c r="AQ38" s="63"/>
+      <c r="AR38" s="63"/>
+      <c r="AS38" s="63"/>
+      <c r="AT38" s="63"/>
+      <c r="AU38" s="63"/>
+      <c r="AV38" s="63"/>
+      <c r="AW38" s="63"/>
+      <c r="AX38" s="63"/>
+      <c r="AY38" s="63"/>
+      <c r="AZ38" s="63"/>
+      <c r="BA38" s="63"/>
+      <c r="BB38" s="63"/>
+      <c r="BC38" s="63"/>
+      <c r="BD38" s="63"/>
+      <c r="BE38" s="63"/>
+      <c r="BF38" s="63"/>
+      <c r="BG38" s="63"/>
+      <c r="BH38" s="63"/>
+      <c r="BI38" s="63"/>
+      <c r="BJ38" s="63"/>
+      <c r="BK38" s="63"/>
+      <c r="BL38" s="63"/>
+      <c r="BM38" s="63"/>
+      <c r="BN38" s="63"/>
+      <c r="BO38" s="63"/>
+      <c r="BP38" s="63"/>
+      <c r="BQ38" s="63"/>
+      <c r="BR38" s="63"/>
+      <c r="BS38" s="63"/>
+      <c r="BT38" s="63"/>
+      <c r="BU38" s="63"/>
+      <c r="BV38" s="63"/>
+      <c r="BW38" s="63"/>
+      <c r="BX38" s="63"/>
+      <c r="BY38" s="63"/>
+      <c r="BZ38" s="63"/>
+      <c r="CA38" s="63"/>
+      <c r="CB38" s="84"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="16.5" spans="1:80">
       <c r="A39" s="7"/>
@@ -13501,7 +13490,7 @@
       <c r="I39" s="47"/>
       <c r="J39" s="47"/>
       <c r="K39" s="47"/>
-      <c r="L39" s="54"/>
+      <c r="L39" s="55"/>
       <c r="M39" s="46" t="s">
         <v>282</v>
       </c>
@@ -13514,7 +13503,7 @@
       <c r="T39" s="47"/>
       <c r="U39" s="47"/>
       <c r="V39" s="47"/>
-      <c r="W39" s="54"/>
+      <c r="W39" s="55"/>
       <c r="X39" s="46" t="s">
         <v>282</v>
       </c>
@@ -13527,53 +13516,53 @@
       <c r="AE39" s="47"/>
       <c r="AF39" s="47"/>
       <c r="AG39" s="47"/>
-      <c r="AH39" s="54"/>
-      <c r="AI39" s="63"/>
-      <c r="AJ39" s="63"/>
-      <c r="AK39" s="63"/>
-      <c r="AL39" s="63"/>
-      <c r="AM39" s="63"/>
-      <c r="AN39" s="63"/>
-      <c r="AO39" s="63"/>
-      <c r="AP39" s="63"/>
-      <c r="AQ39" s="63"/>
-      <c r="AR39" s="63"/>
-      <c r="AS39" s="63"/>
-      <c r="AT39" s="63"/>
-      <c r="AU39" s="63"/>
-      <c r="AV39" s="63"/>
-      <c r="AW39" s="63"/>
-      <c r="AX39" s="63"/>
-      <c r="AY39" s="63"/>
-      <c r="AZ39" s="63"/>
-      <c r="BA39" s="63"/>
-      <c r="BB39" s="63"/>
-      <c r="BC39" s="63"/>
-      <c r="BD39" s="63"/>
-      <c r="BE39" s="63"/>
-      <c r="BF39" s="63"/>
-      <c r="BG39" s="63"/>
-      <c r="BH39" s="63"/>
-      <c r="BI39" s="63"/>
-      <c r="BJ39" s="63"/>
-      <c r="BK39" s="63"/>
-      <c r="BL39" s="63"/>
-      <c r="BM39" s="63"/>
-      <c r="BN39" s="63"/>
-      <c r="BO39" s="63"/>
-      <c r="BP39" s="63"/>
-      <c r="BQ39" s="63"/>
-      <c r="BR39" s="63"/>
-      <c r="BS39" s="63"/>
-      <c r="BT39" s="63"/>
-      <c r="BU39" s="63"/>
-      <c r="BV39" s="63"/>
-      <c r="BW39" s="63"/>
-      <c r="BX39" s="63"/>
-      <c r="BY39" s="63"/>
-      <c r="BZ39" s="63"/>
-      <c r="CA39" s="63"/>
-      <c r="CB39" s="84"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="64"/>
+      <c r="AJ39" s="64"/>
+      <c r="AK39" s="64"/>
+      <c r="AL39" s="64"/>
+      <c r="AM39" s="64"/>
+      <c r="AN39" s="64"/>
+      <c r="AO39" s="64"/>
+      <c r="AP39" s="64"/>
+      <c r="AQ39" s="64"/>
+      <c r="AR39" s="64"/>
+      <c r="AS39" s="64"/>
+      <c r="AT39" s="64"/>
+      <c r="AU39" s="64"/>
+      <c r="AV39" s="64"/>
+      <c r="AW39" s="64"/>
+      <c r="AX39" s="64"/>
+      <c r="AY39" s="64"/>
+      <c r="AZ39" s="64"/>
+      <c r="BA39" s="64"/>
+      <c r="BB39" s="64"/>
+      <c r="BC39" s="64"/>
+      <c r="BD39" s="64"/>
+      <c r="BE39" s="64"/>
+      <c r="BF39" s="64"/>
+      <c r="BG39" s="64"/>
+      <c r="BH39" s="64"/>
+      <c r="BI39" s="64"/>
+      <c r="BJ39" s="64"/>
+      <c r="BK39" s="64"/>
+      <c r="BL39" s="64"/>
+      <c r="BM39" s="64"/>
+      <c r="BN39" s="64"/>
+      <c r="BO39" s="64"/>
+      <c r="BP39" s="64"/>
+      <c r="BQ39" s="64"/>
+      <c r="BR39" s="64"/>
+      <c r="BS39" s="64"/>
+      <c r="BT39" s="64"/>
+      <c r="BU39" s="64"/>
+      <c r="BV39" s="64"/>
+      <c r="BW39" s="64"/>
+      <c r="BX39" s="64"/>
+      <c r="BY39" s="64"/>
+      <c r="BZ39" s="64"/>
+      <c r="CA39" s="64"/>
+      <c r="CB39" s="85"/>
     </row>
     <row r="40" spans="46:59">
       <c r="AT40" s="8"/>
@@ -14035,4 +14024,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-CDQ操作运行报表（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-CDQ操作运行报表（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="1.CDQ操作运行报表（日）" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285">
   <si>
     <r>
       <rPr>
@@ -2186,6 +2186,12 @@
   </si>
   <si>
     <t>CK67_L1R_CDQ_FIQ_35301CAFl_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PI35205AHeStmPa_1min_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FIQ35203AHeatStmVlm_1min_avg</t>
   </si>
   <si>
     <t>夜班平均</t>
@@ -2338,10 +2344,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -2452,14 +2458,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2474,6 +2481,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2482,7 +2497,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2496,19 +2518,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2520,19 +2533,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2552,7 +2556,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2560,16 +2564,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2582,17 +2595,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2659,7 +2665,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2671,7 +2719,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2683,19 +2743,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2707,31 +2773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2749,7 +2803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2761,31 +2821,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2797,49 +2845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3225,6 +3231,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3236,15 +3271,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3264,15 +3290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3284,15 +3301,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3314,11 +3322,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3328,10 +3334,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3340,133 +3346,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -4034,7 +4040,7 @@
   <sheetPr/>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:P2"/>
     </sheetView>
   </sheetViews>
@@ -4180,9 +4186,9 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="48">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="L2" s="48" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
@@ -5430,8 +5436,12 @@
       <c r="BZ9" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="CA9" s="80"/>
-      <c r="CB9" s="81"/>
+      <c r="CA9" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="CB9" s="81" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1" spans="2:80">
       <c r="B10" s="30">
@@ -13043,7 +13053,7 @@
     </row>
     <row r="34" ht="18.95" customHeight="1" spans="2:80">
       <c r="B34" s="38" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="40"/>
@@ -13126,7 +13136,7 @@
     </row>
     <row r="35" ht="18.95" customHeight="1" spans="2:80">
       <c r="B35" s="38" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="40"/>
@@ -13209,7 +13219,7 @@
     </row>
     <row r="36" ht="19.5" customHeight="1" spans="2:80">
       <c r="B36" s="38" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="40"/>
@@ -13292,7 +13302,7 @@
     </row>
     <row r="37" ht="19.5" customHeight="1" spans="2:80">
       <c r="B37" s="41" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="43"/>
@@ -13375,7 +13385,7 @@
     </row>
     <row r="38" ht="119.45" customHeight="1" spans="2:80">
       <c r="B38" s="44" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -13388,7 +13398,7 @@
       <c r="K38" s="45"/>
       <c r="L38" s="54"/>
       <c r="M38" s="44" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N38" s="45"/>
       <c r="O38" s="45"/>
@@ -13401,7 +13411,7 @@
       <c r="V38" s="45"/>
       <c r="W38" s="54"/>
       <c r="X38" s="44" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Y38" s="45"/>
       <c r="Z38" s="45"/>
@@ -13462,7 +13472,7 @@
     </row>
     <row r="39" ht="16.5" spans="2:80">
       <c r="B39" s="46" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -13475,7 +13485,7 @@
       <c r="K39" s="47"/>
       <c r="L39" s="55"/>
       <c r="M39" s="46" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N39" s="47"/>
       <c r="O39" s="47"/>
@@ -13488,7 +13498,7 @@
       <c r="V39" s="47"/>
       <c r="W39" s="55"/>
       <c r="X39" s="46" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Y39" s="47"/>
       <c r="Z39" s="47"/>
@@ -13762,8 +13772,8 @@
   <sheetPr/>
   <dimension ref="A1:BZ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BY1" sqref="BY1:BZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14000,8 +14010,12 @@
       <c r="BX1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="4"/>
+      <c r="BY1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>276</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/excel/finished/焦化/CK67-CDQ操作运行报表（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-CDQ操作运行报表（日）报表设计.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="1.CDQ操作运行报表（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_CDQ_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
   <si>
     <r>
       <rPr>
@@ -37,7 +36,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SGSSGBSMCSA35G00501A                                                                                                                                                                                                                                                                                                                  </t>
+    <t xml:space="preserve">                                                                                                        年                月                日                                                                                                                       SGSSGBSMCSA35G00501A                                                                                                                                                                                                                                                                                                                  </t>
   </si>
   <si>
     <t xml:space="preserve">             参数
@@ -2186,12 +2185,6 @@
   </si>
   <si>
     <t>CK67_L1R_CDQ_FIQ_35301CAFl_1h_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PI35205AHeStmPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FIQ35203AHeatStmVlm_1min_avg</t>
   </si>
   <si>
     <t>夜班平均</t>
@@ -2344,12 +2337,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2436,11 +2429,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -2458,15 +2446,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2474,8 +2467,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2491,64 +2515,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2570,19 +2536,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2594,11 +2560,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2665,13 +2653,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2683,7 +2731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2695,19 +2749,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2725,13 +2809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2743,114 +2827,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -3121,15 +3109,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -3233,29 +3212,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3275,17 +3234,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3301,6 +3254,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3328,16 +3296,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3346,140 +3325,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3507,7 +3486,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3614,13 +3593,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3632,12 +3608,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3645,10 +3618,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3661,10 +3634,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3685,21 +3658,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3708,14 +3681,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4040,8 +4013,8 @@
   <sheetPr/>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:P2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25"/>
@@ -4090,7 +4063,7 @@
     <col min="16382" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50.1" customHeight="1" spans="1:80">
+    <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:80">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -4174,9 +4147,11 @@
       <c r="CA1" s="8"/>
       <c r="CB1" s="8"/>
     </row>
-    <row r="2" ht="28.5" customHeight="1" spans="1:80">
+    <row r="2" s="1" customFormat="1" ht="28.5" customHeight="1" spans="1:80">
       <c r="A2" s="8"/>
-      <c r="B2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -4186,80 +4161,75 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="48" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
-      </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="56"/>
-      <c r="BP2" s="56"/>
-      <c r="BQ2" s="56"/>
-      <c r="BR2" s="56"/>
-      <c r="BS2" s="56"/>
-      <c r="BT2" s="56"/>
-      <c r="BU2" s="56"/>
-      <c r="BV2" s="56"/>
-      <c r="BW2" s="56"/>
-      <c r="BX2" s="56"/>
-      <c r="BY2" s="56"/>
-      <c r="BZ2" s="56"/>
-      <c r="CA2" s="56"/>
-      <c r="CB2" s="56"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:80">
       <c r="A3" s="12"/>
@@ -4280,21 +4250,21 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
       <c r="AB3" s="14" t="s">
         <v>5</v>
       </c>
@@ -4361,9 +4331,9 @@
       <c r="BY3" s="14"/>
       <c r="BZ3" s="14"/>
       <c r="CA3" s="14"/>
-      <c r="CB3" s="76"/>
+      <c r="CB3" s="74"/>
     </row>
-    <row r="4" ht="29.25" customHeight="1" spans="1:80">
+    <row r="4" s="1" customFormat="1" ht="29.25" customHeight="1" spans="1:80">
       <c r="A4" s="12"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
@@ -4454,23 +4424,23 @@
       <c r="AH4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="51" t="s">
+      <c r="AI4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="58" t="s">
+      <c r="AJ4" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="58" t="s">
+      <c r="AK4" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58" t="s">
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AN4" s="58" t="s">
+      <c r="AN4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AO4" s="58"/>
+      <c r="AO4" s="56"/>
       <c r="AP4" s="18" t="s">
         <v>45</v>
       </c>
@@ -4536,16 +4506,16 @@
       <c r="BP4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="BQ4" s="72" t="s">
+      <c r="BQ4" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="BR4" s="72" t="s">
+      <c r="BR4" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="BS4" s="72" t="s">
+      <c r="BS4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="BT4" s="72" t="s">
+      <c r="BT4" s="70" t="s">
         <v>65</v>
       </c>
       <c r="BU4" s="18" t="s">
@@ -4569,11 +4539,11 @@
       <c r="CA4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="CB4" s="77" t="s">
+      <c r="CB4" s="75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" ht="27.75" customHeight="1" spans="1:80">
+    <row r="5" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:80">
       <c r="A5" s="12"/>
       <c r="B5" s="15"/>
       <c r="C5" s="19"/>
@@ -4608,13 +4578,13 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
-      <c r="AI5" s="59"/>
+      <c r="AI5" s="57"/>
       <c r="AJ5" s="18"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
       <c r="AM5" s="18"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
       <c r="AP5" s="18"/>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="18"/>
@@ -4622,7 +4592,7 @@
       <c r="AT5" s="18"/>
       <c r="AU5" s="18"/>
       <c r="AV5" s="18"/>
-      <c r="AW5" s="72"/>
+      <c r="AW5" s="70"/>
       <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="AZ5" s="18"/>
@@ -4642,20 +4612,20 @@
       <c r="BN5" s="18"/>
       <c r="BO5" s="18"/>
       <c r="BP5" s="18"/>
-      <c r="BQ5" s="72"/>
-      <c r="BR5" s="72"/>
-      <c r="BS5" s="72"/>
-      <c r="BT5" s="72"/>
-      <c r="BU5" s="58"/>
+      <c r="BQ5" s="70"/>
+      <c r="BR5" s="70"/>
+      <c r="BS5" s="70"/>
+      <c r="BT5" s="70"/>
+      <c r="BU5" s="56"/>
       <c r="BV5" s="18"/>
       <c r="BW5" s="18"/>
       <c r="BX5" s="18"/>
       <c r="BY5" s="18"/>
       <c r="BZ5" s="18"/>
       <c r="CA5" s="18"/>
-      <c r="CB5" s="77"/>
+      <c r="CB5" s="75"/>
     </row>
-    <row r="6" ht="54" customHeight="1" spans="1:80">
+    <row r="6" s="1" customFormat="1" ht="54" customHeight="1" spans="1:80">
       <c r="A6" s="12"/>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
@@ -4706,7 +4676,7 @@
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
-      <c r="AI6" s="60"/>
+      <c r="AI6" s="58"/>
       <c r="AJ6" s="18"/>
       <c r="AK6" s="22" t="s">
         <v>76</v>
@@ -4715,10 +4685,10 @@
         <v>77</v>
       </c>
       <c r="AM6" s="18"/>
-      <c r="AN6" s="61" t="s">
+      <c r="AN6" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="AO6" s="61" t="s">
+      <c r="AO6" s="59" t="s">
         <v>79</v>
       </c>
       <c r="AP6" s="18"/>
@@ -4734,7 +4704,7 @@
       <c r="AV6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AW6" s="72"/>
+      <c r="AW6" s="70"/>
       <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="AZ6" s="18"/>
@@ -4778,18 +4748,18 @@
       </c>
       <c r="BO6" s="18"/>
       <c r="BP6" s="18"/>
-      <c r="BQ6" s="72"/>
-      <c r="BR6" s="72"/>
-      <c r="BS6" s="72"/>
-      <c r="BT6" s="72"/>
-      <c r="BU6" s="58"/>
+      <c r="BQ6" s="70"/>
+      <c r="BR6" s="70"/>
+      <c r="BS6" s="70"/>
+      <c r="BT6" s="70"/>
+      <c r="BU6" s="56"/>
       <c r="BV6" s="18"/>
       <c r="BW6" s="18"/>
       <c r="BX6" s="18"/>
       <c r="BY6" s="18"/>
       <c r="BZ6" s="18"/>
       <c r="CA6" s="18"/>
-      <c r="CB6" s="77"/>
+      <c r="CB6" s="75"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="44.45" hidden="1" customHeight="1" spans="1:80">
       <c r="A7" s="12"/>
@@ -4851,7 +4821,7 @@
       <c r="AA7" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="57" t="s">
+      <c r="AB7" s="55" t="s">
         <v>99</v>
       </c>
       <c r="AC7" s="26" t="s">
@@ -4867,105 +4837,105 @@
       <c r="AI7" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="AJ7" s="57" t="s">
+      <c r="AJ7" s="55" t="s">
         <v>102</v>
       </c>
       <c r="AK7" s="26" t="s">
         <v>103</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="57" t="s">
+      <c r="AM7" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="AN7" s="57"/>
+      <c r="AN7" s="55"/>
       <c r="AO7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="AP7" s="65" t="s">
+      <c r="AP7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AQ7" s="65" t="s">
+      <c r="AQ7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AR7" s="66" t="s">
+      <c r="AR7" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="AS7" s="66" t="s">
+      <c r="AS7" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="AT7" s="66" t="s">
+      <c r="AT7" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66" t="s">
+      <c r="AU7" s="64"/>
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="AX7" s="66" t="s">
+      <c r="AX7" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="AY7" s="66" t="s">
+      <c r="AY7" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="AZ7" s="66" t="s">
+      <c r="AZ7" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="BA7" s="66" t="s">
+      <c r="BA7" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="66" t="s">
+      <c r="BB7" s="64"/>
+      <c r="BC7" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="BD7" s="66" t="s">
+      <c r="BD7" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="BE7" s="66"/>
-      <c r="BF7" s="66" t="s">
+      <c r="BE7" s="64"/>
+      <c r="BF7" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="BG7" s="66"/>
-      <c r="BH7" s="66" t="s">
+      <c r="BG7" s="64"/>
+      <c r="BH7" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="BI7" s="66" t="s">
+      <c r="BI7" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="66"/>
-      <c r="BM7" s="66"/>
-      <c r="BN7" s="66"/>
-      <c r="BO7" s="66" t="s">
+      <c r="BJ7" s="64"/>
+      <c r="BK7" s="64"/>
+      <c r="BL7" s="64"/>
+      <c r="BM7" s="64"/>
+      <c r="BN7" s="64"/>
+      <c r="BO7" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="BP7" s="66" t="s">
+      <c r="BP7" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="BQ7" s="66" t="s">
+      <c r="BQ7" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="BR7" s="66" t="s">
+      <c r="BR7" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="BS7" s="66" t="s">
+      <c r="BS7" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="BT7" s="66" t="s">
+      <c r="BT7" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="BU7" s="66"/>
-      <c r="BV7" s="66"/>
-      <c r="BW7" s="65" t="s">
+      <c r="BU7" s="64"/>
+      <c r="BV7" s="64"/>
+      <c r="BW7" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="BX7" s="66"/>
-      <c r="BY7" s="65"/>
-      <c r="BZ7" s="66"/>
-      <c r="CA7" s="66"/>
-      <c r="CB7" s="78"/>
+      <c r="BX7" s="64"/>
+      <c r="BY7" s="63"/>
+      <c r="BZ7" s="64"/>
+      <c r="CA7" s="64"/>
+      <c r="CB7" s="76"/>
     </row>
-    <row r="8" ht="66" hidden="1" customHeight="1" spans="1:80">
+    <row r="8" s="1" customFormat="1" ht="66" hidden="1" customHeight="1" spans="1:80">
       <c r="A8" s="12"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28" t="s">
@@ -4995,7 +4965,7 @@
       <c r="K8" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="49" t="s">
         <v>131</v>
       </c>
       <c r="M8" s="28" t="s">
@@ -5007,88 +4977,88 @@
       <c r="O8" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="51" t="s">
+      <c r="P8" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="Q8" s="51" t="s">
+      <c r="Q8" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="R8" s="51" t="s">
+      <c r="R8" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="S8" s="51" t="s">
+      <c r="S8" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="T8" s="51" t="s">
+      <c r="T8" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="U8" s="51" t="s">
+      <c r="U8" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="V8" s="51" t="s">
+      <c r="V8" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="W8" s="50" t="s">
+      <c r="W8" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="X8" s="51" t="s">
+      <c r="X8" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="Y8" s="51" t="s">
+      <c r="Y8" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="Z8" s="50" t="s">
+      <c r="Z8" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="AA8" s="51" t="s">
+      <c r="AA8" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="AB8" s="51" t="s">
+      <c r="AB8" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="AC8" s="51" t="s">
+      <c r="AC8" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="AD8" s="51" t="s">
+      <c r="AD8" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="AE8" s="51" t="s">
+      <c r="AE8" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AF8" s="51" t="s">
+      <c r="AF8" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="AG8" s="51" t="s">
+      <c r="AG8" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="AH8" s="51" t="s">
+      <c r="AH8" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="AI8" s="51" t="s">
+      <c r="AI8" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="AJ8" s="51" t="s">
+      <c r="AJ8" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="AK8" s="51" t="s">
+      <c r="AK8" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="AL8" s="51" t="s">
+      <c r="AL8" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="AM8" s="51" t="s">
+      <c r="AM8" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="AN8" s="51" t="s">
+      <c r="AN8" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="AO8" s="51" t="s">
+      <c r="AO8" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="AP8" s="67" t="s">
+      <c r="AP8" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="AQ8" s="67" t="s">
+      <c r="AQ8" s="65" t="s">
         <v>162</v>
       </c>
       <c r="AR8" s="28" t="s">
@@ -5199,11 +5169,11 @@
       <c r="CA8" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="CB8" s="79" t="s">
+      <c r="CB8" s="77" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" ht="123.6" customHeight="1" spans="1:80">
+    <row r="9" s="1" customFormat="1" ht="123.6" customHeight="1" spans="1:80">
       <c r="A9" s="12"/>
       <c r="B9" s="29" t="s">
         <v>198</v>
@@ -5436,14 +5406,11 @@
       <c r="BZ9" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="CA9" s="80" t="s">
-        <v>275</v>
-      </c>
-      <c r="CB9" s="81" t="s">
-        <v>276</v>
-      </c>
+      <c r="CA9" s="78"/>
+      <c r="CB9" s="79"/>
     </row>
-    <row r="10" ht="15.6" customHeight="1" spans="2:80">
+    <row r="10" s="1" customFormat="1" ht="15.6" customHeight="1" spans="1:80">
+      <c r="A10" s="7"/>
       <c r="B10" s="30">
         <v>0</v>
       </c>
@@ -5479,11 +5446,11 @@
         <f>IF(_CDQ_day_hour!H2="","",_CDQ_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K10" s="52" t="str">
+      <c r="K10" s="51" t="str">
         <f>IF(_CDQ_day_hour!I2="","",_CDQ_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L10" s="53" t="str">
+      <c r="L10" s="52" t="str">
         <f>IF(_CDQ_day_hour!J2="","",_CDQ_day_hour!J2)</f>
         <v/>
       </c>
@@ -5603,164 +5570,165 @@
         <f>IF(_CDQ_day_hour!AM2="","",_CDQ_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP10" s="68" t="str">
+      <c r="AP10" s="66" t="str">
         <f>IF(_CDQ_day_hour!AN2="","",_CDQ_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ10" s="68" t="str">
+      <c r="AQ10" s="66" t="str">
         <f>IF(_CDQ_day_hour!AO2="","",_CDQ_day_hour!AO2)</f>
         <v/>
       </c>
-      <c r="AR10" s="69" t="str">
+      <c r="AR10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP2="","",_CDQ_day_hour!AP2)</f>
         <v/>
       </c>
-      <c r="AS10" s="69" t="str">
+      <c r="AS10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AQ2="","",_CDQ_day_hour!AQ2)</f>
         <v/>
       </c>
-      <c r="AT10" s="69" t="str">
+      <c r="AT10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AR2="","",_CDQ_day_hour!AR2)</f>
         <v/>
       </c>
-      <c r="AU10" s="69" t="str">
+      <c r="AU10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AS2="","",_CDQ_day_hour!AS2)</f>
         <v/>
       </c>
-      <c r="AV10" s="69" t="str">
+      <c r="AV10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AT2="","",_CDQ_day_hour!AT2)</f>
         <v/>
       </c>
-      <c r="AW10" s="69" t="str">
+      <c r="AW10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AU2="","",_CDQ_day_hour!AU2)</f>
         <v/>
       </c>
-      <c r="AX10" s="69" t="str">
+      <c r="AX10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AV2="","",_CDQ_day_hour!AV2)</f>
         <v/>
       </c>
-      <c r="AY10" s="69" t="str">
+      <c r="AY10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AW2="","",_CDQ_day_hour!AW2)</f>
         <v/>
       </c>
-      <c r="AZ10" s="69" t="str">
+      <c r="AZ10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AX2="","",_CDQ_day_hour!AX2)</f>
         <v/>
       </c>
-      <c r="BA10" s="69" t="str">
+      <c r="BA10" s="67" t="str">
         <f>IF(_CDQ_day_hour!AY2="","",_CDQ_day_hour!AY2)</f>
         <v/>
       </c>
-      <c r="BB10" s="70" t="str">
+      <c r="BB10" s="68" t="str">
         <f>IF(_CDQ_day_hour!AZ2="","",_CDQ_day_hour!AZ2)</f>
         <v/>
       </c>
-      <c r="BC10" s="69" t="str">
+      <c r="BC10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BA2="","",_CDQ_day_hour!BA2)</f>
         <v/>
       </c>
-      <c r="BD10" s="69" t="str">
+      <c r="BD10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BB2="","",_CDQ_day_hour!BB2)</f>
         <v/>
       </c>
-      <c r="BE10" s="69" t="str">
+      <c r="BE10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BC2="","",_CDQ_day_hour!BC2)</f>
         <v/>
       </c>
-      <c r="BF10" s="69" t="str">
+      <c r="BF10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BD2="","",_CDQ_day_hour!BD2)</f>
         <v/>
       </c>
-      <c r="BG10" s="69" t="str">
+      <c r="BG10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BE2="","",_CDQ_day_hour!BE2)</f>
         <v/>
       </c>
-      <c r="BH10" s="69" t="str">
+      <c r="BH10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BF2="","",_CDQ_day_hour!BF2)</f>
         <v/>
       </c>
-      <c r="BI10" s="73" t="str">
+      <c r="BI10" s="71" t="str">
         <f>IF(_CDQ_day_hour!BG2="","",_CDQ_day_hour!BG2)</f>
         <v/>
       </c>
-      <c r="BJ10" s="70" t="str">
+      <c r="BJ10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BH2="","",_CDQ_day_hour!BH2)</f>
         <v/>
       </c>
-      <c r="BK10" s="70" t="str">
+      <c r="BK10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BI2="","",_CDQ_day_hour!BI2)</f>
         <v/>
       </c>
-      <c r="BL10" s="70" t="str">
+      <c r="BL10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BJ2="","",_CDQ_day_hour!BJ2)</f>
         <v/>
       </c>
-      <c r="BM10" s="70" t="str">
+      <c r="BM10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BK2="","",_CDQ_day_hour!BK2)</f>
         <v/>
       </c>
-      <c r="BN10" s="70" t="str">
+      <c r="BN10" s="68" t="str">
         <f>IF(_CDQ_day_hour!BL2="","",_CDQ_day_hour!BL2)</f>
         <v/>
       </c>
-      <c r="BO10" s="69" t="str">
+      <c r="BO10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BM2="","",_CDQ_day_hour!BM2)</f>
         <v/>
       </c>
-      <c r="BP10" s="69" t="str">
+      <c r="BP10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BN2="","",_CDQ_day_hour!BN2)</f>
         <v/>
       </c>
-      <c r="BQ10" s="69" t="str">
+      <c r="BQ10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BO2="","",_CDQ_day_hour!BO2)</f>
         <v/>
       </c>
-      <c r="BR10" s="69" t="str">
+      <c r="BR10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BP2="","",_CDQ_day_hour!BP2)</f>
         <v/>
       </c>
-      <c r="BS10" s="69" t="str">
+      <c r="BS10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BQ2="","",_CDQ_day_hour!BQ2)</f>
         <v/>
       </c>
-      <c r="BT10" s="69" t="str">
+      <c r="BT10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BR2="","",_CDQ_day_hour!BR2)</f>
         <v/>
       </c>
-      <c r="BU10" s="69" t="str">
+      <c r="BU10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BS2="","",_CDQ_day_hour!BS2)</f>
         <v/>
       </c>
-      <c r="BV10" s="69" t="str">
+      <c r="BV10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BT2="","",_CDQ_day_hour!BT2)</f>
         <v/>
       </c>
-      <c r="BW10" s="69" t="str">
+      <c r="BW10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BU2="","",_CDQ_day_hour!BU2)</f>
         <v/>
       </c>
-      <c r="BX10" s="69" t="str">
+      <c r="BX10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BV2="","",_CDQ_day_hour!BV2)</f>
         <v/>
       </c>
-      <c r="BY10" s="69" t="str">
+      <c r="BY10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BW2="","",_CDQ_day_hour!BW2)</f>
         <v/>
       </c>
-      <c r="BZ10" s="69" t="str">
+      <c r="BZ10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BX2="","",_CDQ_day_hour!BX2)</f>
         <v/>
       </c>
-      <c r="CA10" s="69" t="str">
+      <c r="CA10" s="67" t="str">
         <f>IF(_CDQ_day_hour!BY2="","",_CDQ_day_hour!BY2)</f>
         <v/>
       </c>
-      <c r="CB10" s="82" t="str">
+      <c r="CB10" s="80" t="str">
         <f>IF(_CDQ_day_hour!BZ2="","",_CDQ_day_hour!BZ2)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="2:80">
+    <row r="11" s="1" customFormat="1" ht="15.75" spans="1:80">
+      <c r="A11" s="7"/>
       <c r="B11" s="30">
         <v>0.0416666666666667</v>
       </c>
@@ -5796,11 +5764,11 @@
         <f>IF(_CDQ_day_hour!H3="","",_CDQ_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K11" s="52" t="str">
+      <c r="K11" s="51" t="str">
         <f>IF(_CDQ_day_hour!I3="","",_CDQ_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L11" s="53" t="str">
+      <c r="L11" s="52" t="str">
         <f>IF(_CDQ_day_hour!J3="","",_CDQ_day_hour!J3)</f>
         <v/>
       </c>
@@ -5920,164 +5888,165 @@
         <f>IF(_CDQ_day_hour!AM3="","",_CDQ_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP11" s="68" t="str">
+      <c r="AP11" s="66" t="str">
         <f>IF(_CDQ_day_hour!AN3="","",_CDQ_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ11" s="68" t="str">
+      <c r="AQ11" s="66" t="str">
         <f>IF(_CDQ_day_hour!AO3="","",_CDQ_day_hour!AO3)</f>
         <v/>
       </c>
-      <c r="AR11" s="69" t="str">
+      <c r="AR11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP3="","",_CDQ_day_hour!AP3)</f>
         <v/>
       </c>
-      <c r="AS11" s="69" t="str">
+      <c r="AS11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AQ3="","",_CDQ_day_hour!AQ3)</f>
         <v/>
       </c>
-      <c r="AT11" s="69" t="str">
+      <c r="AT11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AR3="","",_CDQ_day_hour!AR3)</f>
         <v/>
       </c>
-      <c r="AU11" s="69" t="str">
+      <c r="AU11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AS3="","",_CDQ_day_hour!AS3)</f>
         <v/>
       </c>
-      <c r="AV11" s="69" t="str">
+      <c r="AV11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AT3="","",_CDQ_day_hour!AT3)</f>
         <v/>
       </c>
-      <c r="AW11" s="69" t="str">
+      <c r="AW11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AU3="","",_CDQ_day_hour!AU3)</f>
         <v/>
       </c>
-      <c r="AX11" s="69" t="str">
+      <c r="AX11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AV3="","",_CDQ_day_hour!AV3)</f>
         <v/>
       </c>
-      <c r="AY11" s="69" t="str">
+      <c r="AY11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AW3="","",_CDQ_day_hour!AW3)</f>
         <v/>
       </c>
-      <c r="AZ11" s="69" t="str">
+      <c r="AZ11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AX3="","",_CDQ_day_hour!AX3)</f>
         <v/>
       </c>
-      <c r="BA11" s="69" t="str">
+      <c r="BA11" s="67" t="str">
         <f>IF(_CDQ_day_hour!AY3="","",_CDQ_day_hour!AY3)</f>
         <v/>
       </c>
-      <c r="BB11" s="70" t="str">
+      <c r="BB11" s="68" t="str">
         <f>IF(_CDQ_day_hour!AZ3="","",_CDQ_day_hour!AZ3)</f>
         <v/>
       </c>
-      <c r="BC11" s="69" t="str">
+      <c r="BC11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BA3="","",_CDQ_day_hour!BA3)</f>
         <v/>
       </c>
-      <c r="BD11" s="69" t="str">
+      <c r="BD11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BB3="","",_CDQ_day_hour!BB3)</f>
         <v/>
       </c>
-      <c r="BE11" s="69" t="str">
+      <c r="BE11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BC3="","",_CDQ_day_hour!BC3)</f>
         <v/>
       </c>
-      <c r="BF11" s="69" t="str">
+      <c r="BF11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BD3="","",_CDQ_day_hour!BD3)</f>
         <v/>
       </c>
-      <c r="BG11" s="69" t="str">
+      <c r="BG11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BE3="","",_CDQ_day_hour!BE3)</f>
         <v/>
       </c>
-      <c r="BH11" s="69" t="str">
+      <c r="BH11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BF3="","",_CDQ_day_hour!BF3)</f>
         <v/>
       </c>
-      <c r="BI11" s="73" t="str">
+      <c r="BI11" s="71" t="str">
         <f>IF(_CDQ_day_hour!BG3="","",_CDQ_day_hour!BG3)</f>
         <v/>
       </c>
-      <c r="BJ11" s="70" t="str">
+      <c r="BJ11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BH3="","",_CDQ_day_hour!BH3)</f>
         <v/>
       </c>
-      <c r="BK11" s="70" t="str">
+      <c r="BK11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BI3="","",_CDQ_day_hour!BI3)</f>
         <v/>
       </c>
-      <c r="BL11" s="70" t="str">
+      <c r="BL11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BJ3="","",_CDQ_day_hour!BJ3)</f>
         <v/>
       </c>
-      <c r="BM11" s="70" t="str">
+      <c r="BM11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BK3="","",_CDQ_day_hour!BK3)</f>
         <v/>
       </c>
-      <c r="BN11" s="70" t="str">
+      <c r="BN11" s="68" t="str">
         <f>IF(_CDQ_day_hour!BL3="","",_CDQ_day_hour!BL3)</f>
         <v/>
       </c>
-      <c r="BO11" s="69" t="str">
+      <c r="BO11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BM3="","",_CDQ_day_hour!BM3)</f>
         <v/>
       </c>
-      <c r="BP11" s="69" t="str">
+      <c r="BP11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BN3="","",_CDQ_day_hour!BN3)</f>
         <v/>
       </c>
-      <c r="BQ11" s="69" t="str">
+      <c r="BQ11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BO3="","",_CDQ_day_hour!BO3)</f>
         <v/>
       </c>
-      <c r="BR11" s="69" t="str">
+      <c r="BR11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BP3="","",_CDQ_day_hour!BP3)</f>
         <v/>
       </c>
-      <c r="BS11" s="69" t="str">
+      <c r="BS11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BQ3="","",_CDQ_day_hour!BQ3)</f>
         <v/>
       </c>
-      <c r="BT11" s="69" t="str">
+      <c r="BT11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BR3="","",_CDQ_day_hour!BR3)</f>
         <v/>
       </c>
-      <c r="BU11" s="69" t="str">
+      <c r="BU11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BS3="","",_CDQ_day_hour!BS3)</f>
         <v/>
       </c>
-      <c r="BV11" s="69" t="str">
+      <c r="BV11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BT3="","",_CDQ_day_hour!BT3)</f>
         <v/>
       </c>
-      <c r="BW11" s="69" t="str">
+      <c r="BW11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BU3="","",_CDQ_day_hour!BU3)</f>
         <v/>
       </c>
-      <c r="BX11" s="69" t="str">
+      <c r="BX11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BV3="","",_CDQ_day_hour!BV3)</f>
         <v/>
       </c>
-      <c r="BY11" s="69" t="str">
+      <c r="BY11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BW3="","",_CDQ_day_hour!BW3)</f>
         <v/>
       </c>
-      <c r="BZ11" s="69" t="str">
+      <c r="BZ11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BX3="","",_CDQ_day_hour!BX3)</f>
         <v/>
       </c>
-      <c r="CA11" s="69" t="str">
+      <c r="CA11" s="67" t="str">
         <f>IF(_CDQ_day_hour!BY3="","",_CDQ_day_hour!BY3)</f>
         <v/>
       </c>
-      <c r="CB11" s="82" t="str">
+      <c r="CB11" s="80" t="str">
         <f>IF(_CDQ_day_hour!BZ3="","",_CDQ_day_hour!BZ3)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:80">
+    <row r="12" s="1" customFormat="1" spans="1:80">
+      <c r="A12" s="7"/>
       <c r="B12" s="30">
         <v>0.0833333333333333</v>
       </c>
@@ -6245,7 +6214,7 @@
         <f>IF(_CDQ_day_hour!AO4="","",_CDQ_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="AR12" s="70" t="str">
+      <c r="AR12" s="68" t="str">
         <f>IF(_CDQ_day_hour!AP4="","",_CDQ_day_hour!AP4)</f>
         <v/>
       </c>
@@ -6313,7 +6282,7 @@
         <f>IF(_CDQ_day_hour!BF4="","",_CDQ_day_hour!BF4)</f>
         <v/>
       </c>
-      <c r="BI12" s="74" t="str">
+      <c r="BI12" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG4="","",_CDQ_day_hour!BG4)</f>
         <v/>
       </c>
@@ -6389,12 +6358,13 @@
         <f>IF(_CDQ_day_hour!BY4="","",_CDQ_day_hour!BY4)</f>
         <v/>
       </c>
-      <c r="CB12" s="83" t="str">
+      <c r="CB12" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ4="","",_CDQ_day_hour!BZ4)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:80">
+    <row r="13" s="1" customFormat="1" spans="1:80">
+      <c r="A13" s="7"/>
       <c r="B13" s="30">
         <v>0.125</v>
       </c>
@@ -6562,7 +6532,7 @@
         <f>IF(_CDQ_day_hour!AO5="","",_CDQ_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="AR13" s="70" t="str">
+      <c r="AR13" s="68" t="str">
         <f>IF(_CDQ_day_hour!AP5="","",_CDQ_day_hour!AP5)</f>
         <v/>
       </c>
@@ -6630,7 +6600,7 @@
         <f>IF(_CDQ_day_hour!BF5="","",_CDQ_day_hour!BF5)</f>
         <v/>
       </c>
-      <c r="BI13" s="74" t="str">
+      <c r="BI13" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG5="","",_CDQ_day_hour!BG5)</f>
         <v/>
       </c>
@@ -6706,12 +6676,13 @@
         <f>IF(_CDQ_day_hour!BY5="","",_CDQ_day_hour!BY5)</f>
         <v/>
       </c>
-      <c r="CB13" s="83" t="str">
+      <c r="CB13" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ5="","",_CDQ_day_hour!BZ5)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="2:80">
+    <row r="14" s="1" customFormat="1" ht="15.75" spans="1:80">
+      <c r="A14" s="7"/>
       <c r="B14" s="30">
         <v>0.166666666666667</v>
       </c>
@@ -6879,7 +6850,7 @@
         <f>IF(_CDQ_day_hour!AO6="","",_CDQ_day_hour!AO6)</f>
         <v/>
       </c>
-      <c r="AR14" s="71" t="str">
+      <c r="AR14" s="69" t="str">
         <f>IF(_CDQ_day_hour!AP6="","",_CDQ_day_hour!AP6)</f>
         <v/>
       </c>
@@ -6947,7 +6918,7 @@
         <f>IF(_CDQ_day_hour!BF6="","",_CDQ_day_hour!BF6)</f>
         <v/>
       </c>
-      <c r="BI14" s="74" t="str">
+      <c r="BI14" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG6="","",_CDQ_day_hour!BG6)</f>
         <v/>
       </c>
@@ -7023,12 +6994,13 @@
         <f>IF(_CDQ_day_hour!BY6="","",_CDQ_day_hour!BY6)</f>
         <v/>
       </c>
-      <c r="CB14" s="83" t="str">
+      <c r="CB14" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ6="","",_CDQ_day_hour!BZ6)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="2:80">
+    <row r="15" s="1" customFormat="1" ht="15.75" spans="1:80">
+      <c r="A15" s="7"/>
       <c r="B15" s="30">
         <v>0.208333333333333</v>
       </c>
@@ -7196,7 +7168,7 @@
         <f>IF(_CDQ_day_hour!AO7="","",_CDQ_day_hour!AO7)</f>
         <v/>
       </c>
-      <c r="AR15" s="71" t="str">
+      <c r="AR15" s="69" t="str">
         <f>IF(_CDQ_day_hour!AP7="","",_CDQ_day_hour!AP7)</f>
         <v/>
       </c>
@@ -7264,7 +7236,7 @@
         <f>IF(_CDQ_day_hour!BF7="","",_CDQ_day_hour!BF7)</f>
         <v/>
       </c>
-      <c r="BI15" s="74" t="str">
+      <c r="BI15" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG7="","",_CDQ_day_hour!BG7)</f>
         <v/>
       </c>
@@ -7340,12 +7312,13 @@
         <f>IF(_CDQ_day_hour!BY7="","",_CDQ_day_hour!BY7)</f>
         <v/>
       </c>
-      <c r="CB15" s="83" t="str">
+      <c r="CB15" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ7="","",_CDQ_day_hour!BZ7)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="2:80">
+    <row r="16" s="1" customFormat="1" ht="15.75" spans="1:80">
+      <c r="A16" s="7"/>
       <c r="B16" s="30">
         <v>0.25</v>
       </c>
@@ -7513,7 +7486,7 @@
         <f>IF(_CDQ_day_hour!AO8="","",_CDQ_day_hour!AO8)</f>
         <v/>
       </c>
-      <c r="AR16" s="71" t="str">
+      <c r="AR16" s="69" t="str">
         <f>IF(_CDQ_day_hour!AP8="","",_CDQ_day_hour!AP8)</f>
         <v/>
       </c>
@@ -7581,7 +7554,7 @@
         <f>IF(_CDQ_day_hour!BF8="","",_CDQ_day_hour!BF8)</f>
         <v/>
       </c>
-      <c r="BI16" s="74" t="str">
+      <c r="BI16" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG8="","",_CDQ_day_hour!BG8)</f>
         <v/>
       </c>
@@ -7657,12 +7630,13 @@
         <f>IF(_CDQ_day_hour!BY8="","",_CDQ_day_hour!BY8)</f>
         <v/>
       </c>
-      <c r="CB16" s="83" t="str">
+      <c r="CB16" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ8="","",_CDQ_day_hour!BZ8)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="2:80">
+    <row r="17" s="1" customFormat="1" ht="15.75" spans="1:80">
+      <c r="A17" s="7"/>
       <c r="B17" s="30">
         <v>0.291666666666667</v>
       </c>
@@ -7830,7 +7804,7 @@
         <f>IF(_CDQ_day_hour!AO9="","",_CDQ_day_hour!AO9)</f>
         <v/>
       </c>
-      <c r="AR17" s="71" t="str">
+      <c r="AR17" s="69" t="str">
         <f>IF(_CDQ_day_hour!AP9="","",_CDQ_day_hour!AP9)</f>
         <v/>
       </c>
@@ -7898,7 +7872,7 @@
         <f>IF(_CDQ_day_hour!BF9="","",_CDQ_day_hour!BF9)</f>
         <v/>
       </c>
-      <c r="BI17" s="74" t="str">
+      <c r="BI17" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG9="","",_CDQ_day_hour!BG9)</f>
         <v/>
       </c>
@@ -7974,12 +7948,13 @@
         <f>IF(_CDQ_day_hour!BY9="","",_CDQ_day_hour!BY9)</f>
         <v/>
       </c>
-      <c r="CB17" s="83" t="str">
+      <c r="CB17" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ9="","",_CDQ_day_hour!BZ9)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="2:80">
+    <row r="18" s="1" customFormat="1" ht="15.75" spans="1:80">
+      <c r="A18" s="7"/>
       <c r="B18" s="30">
         <v>0.333333333333333</v>
       </c>
@@ -8147,7 +8122,7 @@
         <f>IF(_CDQ_day_hour!AO10="","",_CDQ_day_hour!AO10)</f>
         <v/>
       </c>
-      <c r="AR18" s="71" t="str">
+      <c r="AR18" s="69" t="str">
         <f>IF(_CDQ_day_hour!AP10="","",_CDQ_day_hour!AP10)</f>
         <v/>
       </c>
@@ -8215,7 +8190,7 @@
         <f>IF(_CDQ_day_hour!BF10="","",_CDQ_day_hour!BF10)</f>
         <v/>
       </c>
-      <c r="BI18" s="74" t="str">
+      <c r="BI18" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG10="","",_CDQ_day_hour!BG10)</f>
         <v/>
       </c>
@@ -8291,12 +8266,13 @@
         <f>IF(_CDQ_day_hour!BY10="","",_CDQ_day_hour!BY10)</f>
         <v/>
       </c>
-      <c r="CB18" s="83" t="str">
+      <c r="CB18" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ10="","",_CDQ_day_hour!BZ10)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="2:80">
+    <row r="19" s="1" customFormat="1" ht="15.75" spans="1:80">
+      <c r="A19" s="7"/>
       <c r="B19" s="30">
         <v>0.375</v>
       </c>
@@ -8464,7 +8440,7 @@
         <f>IF(_CDQ_day_hour!AO11="","",_CDQ_day_hour!AO11)</f>
         <v/>
       </c>
-      <c r="AR19" s="71" t="str">
+      <c r="AR19" s="69" t="str">
         <f>IF(_CDQ_day_hour!AP11="","",_CDQ_day_hour!AP11)</f>
         <v/>
       </c>
@@ -8532,7 +8508,7 @@
         <f>IF(_CDQ_day_hour!BF11="","",_CDQ_day_hour!BF11)</f>
         <v/>
       </c>
-      <c r="BI19" s="74" t="str">
+      <c r="BI19" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG11="","",_CDQ_day_hour!BG11)</f>
         <v/>
       </c>
@@ -8608,12 +8584,13 @@
         <f>IF(_CDQ_day_hour!BY11="","",_CDQ_day_hour!BY11)</f>
         <v/>
       </c>
-      <c r="CB19" s="83" t="str">
+      <c r="CB19" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ11="","",_CDQ_day_hour!BZ11)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:80">
+    <row r="20" s="1" customFormat="1" spans="1:80">
+      <c r="A20" s="7"/>
       <c r="B20" s="30">
         <v>0.416666666666666</v>
       </c>
@@ -8849,7 +8826,7 @@
         <f>IF(_CDQ_day_hour!BF12="","",_CDQ_day_hour!BF12)</f>
         <v/>
       </c>
-      <c r="BI20" s="74" t="str">
+      <c r="BI20" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG12="","",_CDQ_day_hour!BG12)</f>
         <v/>
       </c>
@@ -8925,12 +8902,13 @@
         <f>IF(_CDQ_day_hour!BY12="","",_CDQ_day_hour!BY12)</f>
         <v/>
       </c>
-      <c r="CB20" s="83" t="str">
+      <c r="CB20" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ12="","",_CDQ_day_hour!BZ12)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:80">
+    <row r="21" s="1" customFormat="1" spans="1:80">
+      <c r="A21" s="7"/>
       <c r="B21" s="30">
         <v>0.458333333333333</v>
       </c>
@@ -9166,7 +9144,7 @@
         <f>IF(_CDQ_day_hour!BF13="","",_CDQ_day_hour!BF13)</f>
         <v/>
       </c>
-      <c r="BI21" s="74" t="str">
+      <c r="BI21" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG13="","",_CDQ_day_hour!BG13)</f>
         <v/>
       </c>
@@ -9242,12 +9220,13 @@
         <f>IF(_CDQ_day_hour!BY13="","",_CDQ_day_hour!BY13)</f>
         <v/>
       </c>
-      <c r="CB21" s="83" t="str">
+      <c r="CB21" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ13="","",_CDQ_day_hour!BZ13)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:80">
+    <row r="22" s="1" customFormat="1" spans="1:80">
+      <c r="A22" s="7"/>
       <c r="B22" s="30">
         <v>0.5</v>
       </c>
@@ -9483,7 +9462,7 @@
         <f>IF(_CDQ_day_hour!BF14="","",_CDQ_day_hour!BF14)</f>
         <v/>
       </c>
-      <c r="BI22" s="74" t="str">
+      <c r="BI22" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG14="","",_CDQ_day_hour!BG14)</f>
         <v/>
       </c>
@@ -9559,12 +9538,13 @@
         <f>IF(_CDQ_day_hour!BY14="","",_CDQ_day_hour!BY14)</f>
         <v/>
       </c>
-      <c r="CB22" s="83" t="str">
+      <c r="CB22" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ14="","",_CDQ_day_hour!BZ14)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:80">
+    <row r="23" s="1" customFormat="1" spans="1:80">
+      <c r="A23" s="7"/>
       <c r="B23" s="30">
         <v>0.541666666666666</v>
       </c>
@@ -9800,7 +9780,7 @@
         <f>IF(_CDQ_day_hour!BF15="","",_CDQ_day_hour!BF15)</f>
         <v/>
       </c>
-      <c r="BI23" s="74" t="str">
+      <c r="BI23" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG15="","",_CDQ_day_hour!BG15)</f>
         <v/>
       </c>
@@ -9876,12 +9856,13 @@
         <f>IF(_CDQ_day_hour!BY15="","",_CDQ_day_hour!BY15)</f>
         <v/>
       </c>
-      <c r="CB23" s="83" t="str">
+      <c r="CB23" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ15="","",_CDQ_day_hour!BZ15)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:80">
+    <row r="24" s="1" customFormat="1" spans="1:80">
+      <c r="A24" s="7"/>
       <c r="B24" s="34">
         <v>0.583333333333333</v>
       </c>
@@ -10117,7 +10098,7 @@
         <f>IF(_CDQ_day_hour!BF16="","",_CDQ_day_hour!BF16)</f>
         <v/>
       </c>
-      <c r="BI24" s="74" t="str">
+      <c r="BI24" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG16="","",_CDQ_day_hour!BG16)</f>
         <v/>
       </c>
@@ -10193,12 +10174,13 @@
         <f>IF(_CDQ_day_hour!BY16="","",_CDQ_day_hour!BY16)</f>
         <v/>
       </c>
-      <c r="CB24" s="83" t="str">
+      <c r="CB24" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ16="","",_CDQ_day_hour!BZ16)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:80">
+    <row r="25" s="1" customFormat="1" spans="1:80">
+      <c r="A25" s="7"/>
       <c r="B25" s="30">
         <v>0.625</v>
       </c>
@@ -10434,7 +10416,7 @@
         <f>IF(_CDQ_day_hour!BF17="","",_CDQ_day_hour!BF17)</f>
         <v/>
       </c>
-      <c r="BI25" s="74" t="str">
+      <c r="BI25" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG17="","",_CDQ_day_hour!BG17)</f>
         <v/>
       </c>
@@ -10510,12 +10492,13 @@
         <f>IF(_CDQ_day_hour!BY17="","",_CDQ_day_hour!BY17)</f>
         <v/>
       </c>
-      <c r="CB25" s="83" t="str">
+      <c r="CB25" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ17="","",_CDQ_day_hour!BZ17)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:80">
+    <row r="26" s="1" customFormat="1" spans="1:80">
+      <c r="A26" s="7"/>
       <c r="B26" s="30">
         <v>0.666666666666667</v>
       </c>
@@ -10751,7 +10734,7 @@
         <f>IF(_CDQ_day_hour!BF18="","",_CDQ_day_hour!BF18)</f>
         <v/>
       </c>
-      <c r="BI26" s="74" t="str">
+      <c r="BI26" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG18="","",_CDQ_day_hour!BG18)</f>
         <v/>
       </c>
@@ -10827,12 +10810,13 @@
         <f>IF(_CDQ_day_hour!BY18="","",_CDQ_day_hour!BY18)</f>
         <v/>
       </c>
-      <c r="CB26" s="83" t="str">
+      <c r="CB26" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ18="","",_CDQ_day_hour!BZ18)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:80">
+    <row r="27" s="1" customFormat="1" spans="1:80">
+      <c r="A27" s="7"/>
       <c r="B27" s="30">
         <v>0.708333333333333</v>
       </c>
@@ -11068,7 +11052,7 @@
         <f>IF(_CDQ_day_hour!BF19="","",_CDQ_day_hour!BF19)</f>
         <v/>
       </c>
-      <c r="BI27" s="74" t="str">
+      <c r="BI27" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG19="","",_CDQ_day_hour!BG19)</f>
         <v/>
       </c>
@@ -11144,12 +11128,13 @@
         <f>IF(_CDQ_day_hour!BY19="","",_CDQ_day_hour!BY19)</f>
         <v/>
       </c>
-      <c r="CB27" s="83" t="str">
+      <c r="CB27" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ19="","",_CDQ_day_hour!BZ19)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:80">
+    <row r="28" s="1" customFormat="1" spans="1:80">
+      <c r="A28" s="7"/>
       <c r="B28" s="30">
         <v>0.75</v>
       </c>
@@ -11385,7 +11370,7 @@
         <f>IF(_CDQ_day_hour!BF20="","",_CDQ_day_hour!BF20)</f>
         <v/>
       </c>
-      <c r="BI28" s="74" t="str">
+      <c r="BI28" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG20="","",_CDQ_day_hour!BG20)</f>
         <v/>
       </c>
@@ -11461,12 +11446,13 @@
         <f>IF(_CDQ_day_hour!BY20="","",_CDQ_day_hour!BY20)</f>
         <v/>
       </c>
-      <c r="CB28" s="83" t="str">
+      <c r="CB28" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ20="","",_CDQ_day_hour!BZ20)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:80">
+    <row r="29" s="1" customFormat="1" spans="1:80">
+      <c r="A29" s="7"/>
       <c r="B29" s="30">
         <v>0.791666666666667</v>
       </c>
@@ -11702,7 +11688,7 @@
         <f>IF(_CDQ_day_hour!BF21="","",_CDQ_day_hour!BF21)</f>
         <v/>
       </c>
-      <c r="BI29" s="74" t="str">
+      <c r="BI29" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG21="","",_CDQ_day_hour!BG21)</f>
         <v/>
       </c>
@@ -11778,12 +11764,13 @@
         <f>IF(_CDQ_day_hour!BY21="","",_CDQ_day_hour!BY21)</f>
         <v/>
       </c>
-      <c r="CB29" s="83" t="str">
+      <c r="CB29" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ21="","",_CDQ_day_hour!BZ21)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:80">
+    <row r="30" s="1" customFormat="1" spans="1:80">
+      <c r="A30" s="7"/>
       <c r="B30" s="30">
         <v>0.833333333333333</v>
       </c>
@@ -12019,7 +12006,7 @@
         <f>IF(_CDQ_day_hour!BF22="","",_CDQ_day_hour!BF22)</f>
         <v/>
       </c>
-      <c r="BI30" s="74" t="str">
+      <c r="BI30" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG22="","",_CDQ_day_hour!BG22)</f>
         <v/>
       </c>
@@ -12095,12 +12082,13 @@
         <f>IF(_CDQ_day_hour!BY22="","",_CDQ_day_hour!BY22)</f>
         <v/>
       </c>
-      <c r="CB30" s="83" t="str">
+      <c r="CB30" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ22="","",_CDQ_day_hour!BZ22)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:80">
+    <row r="31" s="1" customFormat="1" spans="1:80">
+      <c r="A31" s="7"/>
       <c r="B31" s="30">
         <v>0.875</v>
       </c>
@@ -12336,7 +12324,7 @@
         <f>IF(_CDQ_day_hour!BF23="","",_CDQ_day_hour!BF23)</f>
         <v/>
       </c>
-      <c r="BI31" s="74" t="str">
+      <c r="BI31" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG23="","",_CDQ_day_hour!BG23)</f>
         <v/>
       </c>
@@ -12412,12 +12400,13 @@
         <f>IF(_CDQ_day_hour!BY23="","",_CDQ_day_hour!BY23)</f>
         <v/>
       </c>
-      <c r="CB31" s="83" t="str">
+      <c r="CB31" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ23="","",_CDQ_day_hour!BZ23)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:80">
+    <row r="32" s="1" customFormat="1" spans="1:80">
+      <c r="A32" s="7"/>
       <c r="B32" s="30">
         <v>0.916666666666667</v>
       </c>
@@ -12653,7 +12642,7 @@
         <f>IF(_CDQ_day_hour!BF24="","",_CDQ_day_hour!BF24)</f>
         <v/>
       </c>
-      <c r="BI32" s="74" t="str">
+      <c r="BI32" s="72" t="str">
         <f>IF(_CDQ_day_hour!BG24="","",_CDQ_day_hour!BG24)</f>
         <v/>
       </c>
@@ -12729,12 +12718,13 @@
         <f>IF(_CDQ_day_hour!BY24="","",_CDQ_day_hour!BY24)</f>
         <v/>
       </c>
-      <c r="CB32" s="83" t="str">
+      <c r="CB32" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ24="","",_CDQ_day_hour!BZ24)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:80">
+    <row r="33" s="1" customFormat="1" spans="1:80">
+      <c r="A33" s="7"/>
       <c r="B33" s="35">
         <v>0.958333333333333</v>
       </c>
@@ -12874,103 +12864,103 @@
         <f>IF(_CDQ_day_hour!AH25="","",_CDQ_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK33" s="62" t="str">
+      <c r="AK33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AI25="","",_CDQ_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL33" s="62" t="str">
+      <c r="AL33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AJ25="","",_CDQ_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM33" s="62" t="str">
+      <c r="AM33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AK25="","",_CDQ_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN33" s="62" t="str">
+      <c r="AN33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AL25="","",_CDQ_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO33" s="62" t="str">
+      <c r="AO33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AM25="","",_CDQ_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP33" s="62" t="str">
+      <c r="AP33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AN25="","",_CDQ_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ33" s="62" t="str">
+      <c r="AQ33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AO25="","",_CDQ_day_hour!AO25)</f>
         <v/>
       </c>
-      <c r="AR33" s="62" t="str">
+      <c r="AR33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AP25="","",_CDQ_day_hour!AP25)</f>
         <v/>
       </c>
-      <c r="AS33" s="62" t="str">
+      <c r="AS33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AQ25="","",_CDQ_day_hour!AQ25)</f>
         <v/>
       </c>
-      <c r="AT33" s="62" t="str">
+      <c r="AT33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AR25="","",_CDQ_day_hour!AR25)</f>
         <v/>
       </c>
-      <c r="AU33" s="62" t="str">
+      <c r="AU33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AS25="","",_CDQ_day_hour!AS25)</f>
         <v/>
       </c>
-      <c r="AV33" s="62" t="str">
+      <c r="AV33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AT25="","",_CDQ_day_hour!AT25)</f>
         <v/>
       </c>
-      <c r="AW33" s="62" t="str">
+      <c r="AW33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AU25="","",_CDQ_day_hour!AU25)</f>
         <v/>
       </c>
-      <c r="AX33" s="62" t="str">
+      <c r="AX33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AV25="","",_CDQ_day_hour!AV25)</f>
         <v/>
       </c>
-      <c r="AY33" s="62" t="str">
+      <c r="AY33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AW25="","",_CDQ_day_hour!AW25)</f>
         <v/>
       </c>
-      <c r="AZ33" s="62" t="str">
+      <c r="AZ33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AX25="","",_CDQ_day_hour!AX25)</f>
         <v/>
       </c>
-      <c r="BA33" s="62" t="str">
+      <c r="BA33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AY25="","",_CDQ_day_hour!AY25)</f>
         <v/>
       </c>
-      <c r="BB33" s="62" t="str">
+      <c r="BB33" s="60" t="str">
         <f>IF(_CDQ_day_hour!AZ25="","",_CDQ_day_hour!AZ25)</f>
         <v/>
       </c>
-      <c r="BC33" s="62" t="str">
+      <c r="BC33" s="60" t="str">
         <f>IF(_CDQ_day_hour!BA25="","",_CDQ_day_hour!BA25)</f>
         <v/>
       </c>
-      <c r="BD33" s="62" t="str">
+      <c r="BD33" s="60" t="str">
         <f>IF(_CDQ_day_hour!BB25="","",_CDQ_day_hour!BB25)</f>
         <v/>
       </c>
-      <c r="BE33" s="62" t="str">
+      <c r="BE33" s="60" t="str">
         <f>IF(_CDQ_day_hour!BC25="","",_CDQ_day_hour!BC25)</f>
         <v/>
       </c>
-      <c r="BF33" s="62" t="str">
+      <c r="BF33" s="60" t="str">
         <f>IF(_CDQ_day_hour!BD25="","",_CDQ_day_hour!BD25)</f>
         <v/>
       </c>
-      <c r="BG33" s="62" t="str">
+      <c r="BG33" s="60" t="str">
         <f>IF(_CDQ_day_hour!BE25="","",_CDQ_day_hour!BE25)</f>
         <v/>
       </c>
-      <c r="BH33" s="62" t="str">
+      <c r="BH33" s="60" t="str">
         <f>IF(_CDQ_day_hour!BF25="","",_CDQ_day_hour!BF25)</f>
         <v/>
       </c>
-      <c r="BI33" s="75" t="str">
+      <c r="BI33" s="73" t="str">
         <f>IF(_CDQ_day_hour!BG25="","",_CDQ_day_hour!BG25)</f>
         <v/>
       </c>
@@ -13046,14 +13036,15 @@
         <f>IF(_CDQ_day_hour!BY25="","",_CDQ_day_hour!BY25)</f>
         <v/>
       </c>
-      <c r="CB33" s="83" t="str">
+      <c r="CB33" s="81" t="str">
         <f>IF(_CDQ_day_hour!BZ25="","",_CDQ_day_hour!BZ25)</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="18.95" customHeight="1" spans="2:80">
+    <row r="34" s="1" customFormat="1" ht="18.95" customHeight="1" spans="1:80">
+      <c r="A34" s="7"/>
       <c r="B34" s="38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="40"/>
@@ -13132,11 +13123,12 @@
       <c r="BY34" s="33"/>
       <c r="BZ34" s="33"/>
       <c r="CA34" s="33"/>
-      <c r="CB34" s="83"/>
+      <c r="CB34" s="81"/>
     </row>
-    <row r="35" ht="18.95" customHeight="1" spans="2:80">
+    <row r="35" s="1" customFormat="1" ht="18.95" customHeight="1" spans="1:80">
+      <c r="A35" s="7"/>
       <c r="B35" s="38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="40"/>
@@ -13215,11 +13207,12 @@
       <c r="BY35" s="33"/>
       <c r="BZ35" s="33"/>
       <c r="CA35" s="33"/>
-      <c r="CB35" s="83"/>
+      <c r="CB35" s="81"/>
     </row>
-    <row r="36" ht="19.5" customHeight="1" spans="2:80">
+    <row r="36" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:80">
+      <c r="A36" s="7"/>
       <c r="B36" s="38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="40"/>
@@ -13298,11 +13291,12 @@
       <c r="BY36" s="33"/>
       <c r="BZ36" s="33"/>
       <c r="CA36" s="33"/>
-      <c r="CB36" s="83"/>
+      <c r="CB36" s="81"/>
     </row>
-    <row r="37" ht="19.5" customHeight="1" spans="2:80">
+    <row r="37" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:80">
+      <c r="A37" s="7"/>
       <c r="B37" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="43"/>
@@ -13381,11 +13375,12 @@
       <c r="BY37" s="33"/>
       <c r="BZ37" s="33"/>
       <c r="CA37" s="33"/>
-      <c r="CB37" s="83"/>
+      <c r="CB37" s="81"/>
     </row>
-    <row r="38" ht="119.45" customHeight="1" spans="2:80">
+    <row r="38" s="1" customFormat="1" ht="119.45" customHeight="1" spans="1:80">
+      <c r="A38" s="7"/>
       <c r="B38" s="44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -13396,9 +13391,9 @@
       <c r="I38" s="45"/>
       <c r="J38" s="45"/>
       <c r="K38" s="45"/>
-      <c r="L38" s="54"/>
+      <c r="L38" s="53"/>
       <c r="M38" s="44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N38" s="45"/>
       <c r="O38" s="45"/>
@@ -13409,9 +13404,9 @@
       <c r="T38" s="45"/>
       <c r="U38" s="45"/>
       <c r="V38" s="45"/>
-      <c r="W38" s="54"/>
+      <c r="W38" s="53"/>
       <c r="X38" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Y38" s="45"/>
       <c r="Z38" s="45"/>
@@ -13422,57 +13417,58 @@
       <c r="AE38" s="45"/>
       <c r="AF38" s="45"/>
       <c r="AG38" s="45"/>
-      <c r="AH38" s="54"/>
-      <c r="AI38" s="63"/>
-      <c r="AJ38" s="63"/>
-      <c r="AK38" s="63"/>
-      <c r="AL38" s="63"/>
-      <c r="AM38" s="63"/>
-      <c r="AN38" s="63"/>
-      <c r="AO38" s="63"/>
-      <c r="AP38" s="63"/>
-      <c r="AQ38" s="63"/>
-      <c r="AR38" s="63"/>
-      <c r="AS38" s="63"/>
-      <c r="AT38" s="63"/>
-      <c r="AU38" s="63"/>
-      <c r="AV38" s="63"/>
-      <c r="AW38" s="63"/>
-      <c r="AX38" s="63"/>
-      <c r="AY38" s="63"/>
-      <c r="AZ38" s="63"/>
-      <c r="BA38" s="63"/>
-      <c r="BB38" s="63"/>
-      <c r="BC38" s="63"/>
-      <c r="BD38" s="63"/>
-      <c r="BE38" s="63"/>
-      <c r="BF38" s="63"/>
-      <c r="BG38" s="63"/>
-      <c r="BH38" s="63"/>
-      <c r="BI38" s="63"/>
-      <c r="BJ38" s="63"/>
-      <c r="BK38" s="63"/>
-      <c r="BL38" s="63"/>
-      <c r="BM38" s="63"/>
-      <c r="BN38" s="63"/>
-      <c r="BO38" s="63"/>
-      <c r="BP38" s="63"/>
-      <c r="BQ38" s="63"/>
-      <c r="BR38" s="63"/>
-      <c r="BS38" s="63"/>
-      <c r="BT38" s="63"/>
-      <c r="BU38" s="63"/>
-      <c r="BV38" s="63"/>
-      <c r="BW38" s="63"/>
-      <c r="BX38" s="63"/>
-      <c r="BY38" s="63"/>
-      <c r="BZ38" s="63"/>
-      <c r="CA38" s="63"/>
-      <c r="CB38" s="84"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="61"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="61"/>
+      <c r="AO38" s="61"/>
+      <c r="AP38" s="61"/>
+      <c r="AQ38" s="61"/>
+      <c r="AR38" s="61"/>
+      <c r="AS38" s="61"/>
+      <c r="AT38" s="61"/>
+      <c r="AU38" s="61"/>
+      <c r="AV38" s="61"/>
+      <c r="AW38" s="61"/>
+      <c r="AX38" s="61"/>
+      <c r="AY38" s="61"/>
+      <c r="AZ38" s="61"/>
+      <c r="BA38" s="61"/>
+      <c r="BB38" s="61"/>
+      <c r="BC38" s="61"/>
+      <c r="BD38" s="61"/>
+      <c r="BE38" s="61"/>
+      <c r="BF38" s="61"/>
+      <c r="BG38" s="61"/>
+      <c r="BH38" s="61"/>
+      <c r="BI38" s="61"/>
+      <c r="BJ38" s="61"/>
+      <c r="BK38" s="61"/>
+      <c r="BL38" s="61"/>
+      <c r="BM38" s="61"/>
+      <c r="BN38" s="61"/>
+      <c r="BO38" s="61"/>
+      <c r="BP38" s="61"/>
+      <c r="BQ38" s="61"/>
+      <c r="BR38" s="61"/>
+      <c r="BS38" s="61"/>
+      <c r="BT38" s="61"/>
+      <c r="BU38" s="61"/>
+      <c r="BV38" s="61"/>
+      <c r="BW38" s="61"/>
+      <c r="BX38" s="61"/>
+      <c r="BY38" s="61"/>
+      <c r="BZ38" s="61"/>
+      <c r="CA38" s="61"/>
+      <c r="CB38" s="82"/>
     </row>
-    <row r="39" ht="16.5" spans="2:80">
+    <row r="39" s="1" customFormat="1" ht="16.5" spans="1:80">
+      <c r="A39" s="7"/>
       <c r="B39" s="46" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -13483,9 +13479,9 @@
       <c r="I39" s="47"/>
       <c r="J39" s="47"/>
       <c r="K39" s="47"/>
-      <c r="L39" s="55"/>
+      <c r="L39" s="54"/>
       <c r="M39" s="46" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N39" s="47"/>
       <c r="O39" s="47"/>
@@ -13496,9 +13492,9 @@
       <c r="T39" s="47"/>
       <c r="U39" s="47"/>
       <c r="V39" s="47"/>
-      <c r="W39" s="55"/>
+      <c r="W39" s="54"/>
       <c r="X39" s="46" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Y39" s="47"/>
       <c r="Z39" s="47"/>
@@ -13509,53 +13505,53 @@
       <c r="AE39" s="47"/>
       <c r="AF39" s="47"/>
       <c r="AG39" s="47"/>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="64"/>
-      <c r="AJ39" s="64"/>
-      <c r="AK39" s="64"/>
-      <c r="AL39" s="64"/>
-      <c r="AM39" s="64"/>
-      <c r="AN39" s="64"/>
-      <c r="AO39" s="64"/>
-      <c r="AP39" s="64"/>
-      <c r="AQ39" s="64"/>
-      <c r="AR39" s="64"/>
-      <c r="AS39" s="64"/>
-      <c r="AT39" s="64"/>
-      <c r="AU39" s="64"/>
-      <c r="AV39" s="64"/>
-      <c r="AW39" s="64"/>
-      <c r="AX39" s="64"/>
-      <c r="AY39" s="64"/>
-      <c r="AZ39" s="64"/>
-      <c r="BA39" s="64"/>
-      <c r="BB39" s="64"/>
-      <c r="BC39" s="64"/>
-      <c r="BD39" s="64"/>
-      <c r="BE39" s="64"/>
-      <c r="BF39" s="64"/>
-      <c r="BG39" s="64"/>
-      <c r="BH39" s="64"/>
-      <c r="BI39" s="64"/>
-      <c r="BJ39" s="64"/>
-      <c r="BK39" s="64"/>
-      <c r="BL39" s="64"/>
-      <c r="BM39" s="64"/>
-      <c r="BN39" s="64"/>
-      <c r="BO39" s="64"/>
-      <c r="BP39" s="64"/>
-      <c r="BQ39" s="64"/>
-      <c r="BR39" s="64"/>
-      <c r="BS39" s="64"/>
-      <c r="BT39" s="64"/>
-      <c r="BU39" s="64"/>
-      <c r="BV39" s="64"/>
-      <c r="BW39" s="64"/>
-      <c r="BX39" s="64"/>
-      <c r="BY39" s="64"/>
-      <c r="BZ39" s="64"/>
-      <c r="CA39" s="64"/>
-      <c r="CB39" s="85"/>
+      <c r="AH39" s="54"/>
+      <c r="AI39" s="62"/>
+      <c r="AJ39" s="62"/>
+      <c r="AK39" s="62"/>
+      <c r="AL39" s="62"/>
+      <c r="AM39" s="62"/>
+      <c r="AN39" s="62"/>
+      <c r="AO39" s="62"/>
+      <c r="AP39" s="62"/>
+      <c r="AQ39" s="62"/>
+      <c r="AR39" s="62"/>
+      <c r="AS39" s="62"/>
+      <c r="AT39" s="62"/>
+      <c r="AU39" s="62"/>
+      <c r="AV39" s="62"/>
+      <c r="AW39" s="62"/>
+      <c r="AX39" s="62"/>
+      <c r="AY39" s="62"/>
+      <c r="AZ39" s="62"/>
+      <c r="BA39" s="62"/>
+      <c r="BB39" s="62"/>
+      <c r="BC39" s="62"/>
+      <c r="BD39" s="62"/>
+      <c r="BE39" s="62"/>
+      <c r="BF39" s="62"/>
+      <c r="BG39" s="62"/>
+      <c r="BH39" s="62"/>
+      <c r="BI39" s="62"/>
+      <c r="BJ39" s="62"/>
+      <c r="BK39" s="62"/>
+      <c r="BL39" s="62"/>
+      <c r="BM39" s="62"/>
+      <c r="BN39" s="62"/>
+      <c r="BO39" s="62"/>
+      <c r="BP39" s="62"/>
+      <c r="BQ39" s="62"/>
+      <c r="BR39" s="62"/>
+      <c r="BS39" s="62"/>
+      <c r="BT39" s="62"/>
+      <c r="BU39" s="62"/>
+      <c r="BV39" s="62"/>
+      <c r="BW39" s="62"/>
+      <c r="BX39" s="62"/>
+      <c r="BY39" s="62"/>
+      <c r="BZ39" s="62"/>
+      <c r="CA39" s="62"/>
+      <c r="CB39" s="83"/>
     </row>
     <row r="40" spans="46:59">
       <c r="AT40" s="8"/>
@@ -13670,11 +13666,9 @@
       <c r="BF46" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="88">
     <mergeCell ref="B1:AJ1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:CB2"/>
+    <mergeCell ref="B2:AK2"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="O3:AA3"/>
     <mergeCell ref="AB3:AO3"/>
@@ -13772,8 +13766,8 @@
   <sheetPr/>
   <dimension ref="A1:BZ1"/>
   <sheetViews>
-    <sheetView topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BY1" sqref="BY1:BZ1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13781,7 +13775,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" spans="1:78">
+    <row r="1" s="1" customFormat="1" ht="72" spans="1:78">
       <c r="A1" s="2" t="s">
         <v>199</v>
       </c>
@@ -14010,31 +14004,11 @@
       <c r="BX1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="BY1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>276</v>
-      </c>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>